--- a/commute_data.xlsx
+++ b/commute_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e16a63fbc3767a60/Desktop/github_projects/cycling_commute_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A7ACB70F-555A-465F-A53C-86EC18054354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5FA4DEB-A0FF-473E-A698-A825DE45DCA0}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{0A5699E3-E421-4D28-B18C-4E0E62024142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3C964D5-B14B-42F2-BE07-C05137FC8AA5}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11CA01FF-893B-4EC3-B0DD-3693396212DA}"/>
+    <workbookView xWindow="4575" yWindow="1020" windowWidth="19965" windowHeight="12360" xr2:uid="{11CA01FF-893B-4EC3-B0DD-3693396212DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="75">
   <si>
     <t>year</t>
   </si>
@@ -250,6 +250,18 @@
   <si>
     <t>game day traffic</t>
   </si>
+  <si>
+    <t>Fire Sean McDermontt</t>
+  </si>
+  <si>
+    <t>construction on Academy on the way home</t>
+  </si>
+  <si>
+    <t>windy</t>
+  </si>
+  <si>
+    <t>Ftriday</t>
+  </si>
 </sst>
 </file>
 
@@ -276,12 +288,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -296,8 +314,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -317,9 +336,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -357,7 +376,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -463,7 +482,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -605,7 +624,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -613,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5BBCBB-9CDB-476D-99D1-BD0313D6A121}">
-  <dimension ref="A1:Z190"/>
+  <dimension ref="A1:Z225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I178" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O200" sqref="O200"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V225" sqref="V225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +660,7 @@
     <col min="23" max="23" width="16.85546875" customWidth="1"/>
     <col min="24" max="24" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -678,37 +697,37 @@
       <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="W1" t="s">
@@ -884,403 +903,403 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2022</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>22.53</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>8.0299999999999994</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>8.26</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>66</v>
       </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="I4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" t="s">
-        <v>36</v>
-      </c>
-      <c r="V4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W4">
+      <c r="N4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" s="1">
         <v>8.5299999999999994</v>
       </c>
-      <c r="X4">
-        <v>8</v>
-      </c>
-      <c r="Y4">
-        <v>8</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="X4" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>2022</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>21.53</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>8.39</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>9.01</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>70</v>
       </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="I5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>18.45</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>4.46</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>5.04</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>90</v>
       </c>
-      <c r="R5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" t="s">
-        <v>36</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="R5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="1">
         <v>9.26</v>
       </c>
-      <c r="X5">
-        <v>8</v>
-      </c>
-      <c r="Y5">
-        <v>8</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="X5" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>2022</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>9</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>23.39</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>8.26</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>8.49</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>67</v>
       </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="I6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <v>17.13</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="1">
         <v>4.45</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="1">
         <v>5.0199999999999996</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="1">
         <v>90</v>
       </c>
-      <c r="R6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S6" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6" t="s">
-        <v>36</v>
-      </c>
-      <c r="U6" t="s">
-        <v>36</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="R6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="1">
         <v>8.1300000000000008</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="1">
         <v>7</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="1">
         <v>7</v>
       </c>
-      <c r="Z6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="Z6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>2022</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>22.11</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>8.33</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>8.5399999999999991</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>70</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>70</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>64</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>56</v>
       </c>
-      <c r="L7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="L7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>18.13</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <v>5.05</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="1">
         <v>5.23</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="1">
         <v>83</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="1">
         <v>86</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="1">
         <v>67</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="1">
         <v>43</v>
       </c>
-      <c r="U7" t="s">
-        <v>36</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="U7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="1">
         <v>8.0500000000000007</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="1">
         <v>6</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="1">
         <v>7</v>
       </c>
-      <c r="Z7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="Z7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>2022</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
         <v>22.2</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>8.11</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>8.33</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>56</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>55</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>42</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>39</v>
       </c>
-      <c r="L8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="L8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>18.25</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="1">
         <v>12.37</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="1">
         <v>12.55</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="1">
         <v>71</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="1">
         <v>71</v>
       </c>
-      <c r="S8">
-        <v>36</v>
-      </c>
-      <c r="T8">
+      <c r="S8" s="1">
+        <v>36</v>
+      </c>
+      <c r="T8" s="1">
         <v>23</v>
       </c>
-      <c r="U8" t="s">
-        <v>36</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="U8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W8">
-        <v>8</v>
-      </c>
-      <c r="X8">
+      <c r="W8" s="1">
+        <v>8</v>
+      </c>
+      <c r="X8" s="1">
         <v>6</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="1">
         <v>6</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Z8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1405,25 +1424,25 @@
         <v>25</v>
       </c>
       <c r="N10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U10" t="s">
         <v>36</v>
@@ -2084,403 +2103,403 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>2022</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>10</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>17</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>20.53</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>8.43</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>9.0299999999999994</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>61</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>61</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>60</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>52</v>
       </c>
-      <c r="L19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="L19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="1">
         <v>19.22</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="1">
         <v>4.46</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="1">
         <v>5.05</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="1">
         <v>72</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="1">
         <v>72</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="1">
         <v>59</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="1">
         <v>51</v>
       </c>
-      <c r="U19" t="s">
-        <v>36</v>
-      </c>
-      <c r="V19" t="s">
+      <c r="U19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="1">
         <v>8.59</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="1">
         <v>7</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="1">
         <v>7</v>
       </c>
-      <c r="Z19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="Z19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>2022</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>10</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>18</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>23.24</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>9.0299999999999994</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>9.26</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>46</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>41</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <v>28</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <v>39</v>
       </c>
-      <c r="L20" t="s">
-        <v>36</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="L20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="1">
         <v>19.16</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="1">
         <v>4.45</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="1">
         <v>5.04</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="1">
         <v>57</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="1">
         <v>54</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="1">
         <v>38</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="1">
         <v>30</v>
       </c>
-      <c r="U20" t="s">
-        <v>36</v>
-      </c>
-      <c r="V20" t="s">
+      <c r="U20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="1">
         <v>9.1199999999999992</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="1">
         <v>5</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="1">
         <v>6</v>
       </c>
-      <c r="Z20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="Z20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>2022</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>10</v>
       </c>
-      <c r="C21">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="1">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>21.5</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>9.16</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>9.3800000000000008</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>38</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <v>38</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <v>32</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <v>41</v>
       </c>
-      <c r="L21" t="s">
-        <v>36</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="L21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="1">
         <v>19.079999999999998</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="1">
         <v>4.45</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="1">
         <v>5.04</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="1">
         <v>58</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="1">
         <v>57</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="1">
         <v>31</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="1">
         <v>21</v>
       </c>
-      <c r="U21" t="s">
-        <v>36</v>
-      </c>
-      <c r="V21" t="s">
+      <c r="U21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="1">
         <v>9.41</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="1">
         <v>5</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="1">
         <v>5</v>
       </c>
-      <c r="Z21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="Z21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>2022</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>10</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>20</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>22.08</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>9.52</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>10.14</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>50</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>50</v>
       </c>
-      <c r="J22">
-        <v>36</v>
-      </c>
-      <c r="K22">
+      <c r="J22" s="1">
+        <v>36</v>
+      </c>
+      <c r="K22" s="1">
         <v>43</v>
       </c>
-      <c r="L22" t="s">
-        <v>36</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="L22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="1">
         <v>19.059999999999999</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="1">
         <v>5.26</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="1">
         <v>5.45</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="1">
         <v>61</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="1">
         <v>61</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="1">
         <v>34</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="1">
         <v>27</v>
       </c>
-      <c r="U22" t="s">
-        <v>36</v>
-      </c>
-      <c r="V22" t="s">
+      <c r="U22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="1">
         <v>10.19</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="1">
         <v>5</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="1">
         <v>6</v>
       </c>
-      <c r="Z22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="Z22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>2022</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>10</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>21</v>
       </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1">
         <v>22.33</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>9.51</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>10.130000000000001</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>50</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>50</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="1">
         <v>39</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="1">
         <v>55</v>
       </c>
-      <c r="L23" t="s">
-        <v>36</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="L23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O23" t="s">
-        <v>37</v>
-      </c>
-      <c r="P23" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>37</v>
-      </c>
-      <c r="R23" t="s">
-        <v>37</v>
-      </c>
-      <c r="S23" t="s">
-        <v>37</v>
-      </c>
-      <c r="T23" t="s">
-        <v>37</v>
-      </c>
-      <c r="U23" t="s">
-        <v>36</v>
-      </c>
-      <c r="V23" t="s">
-        <v>37</v>
-      </c>
-      <c r="W23">
+      <c r="W23" s="1">
         <v>9.31</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="1">
         <v>5</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="1">
         <v>7</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Z23" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2804,403 +2823,403 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>2022</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>10</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>31</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>20.350000000000001</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>7.52</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>8.1199999999999992</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>57</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="1">
         <v>57</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="1">
         <v>54</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="1">
         <v>56</v>
       </c>
-      <c r="L28" t="s">
-        <v>36</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="L28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="1">
         <v>18.37</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="1">
         <v>4.22</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="1">
         <v>68</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="1">
         <v>68</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="1">
         <v>62</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="1">
         <v>26</v>
       </c>
-      <c r="U28" t="s">
-        <v>36</v>
-      </c>
-      <c r="V28" t="s">
+      <c r="U28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="1">
         <v>7.34</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="1">
         <v>9</v>
       </c>
-      <c r="Y28">
-        <v>8</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="Y28" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>2022</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>11</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>1</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>22</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>8.16</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>8.3800000000000008</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>60</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="1">
         <v>60</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="1">
         <v>59</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="1">
         <v>50</v>
       </c>
-      <c r="L29" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="L29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="1">
         <v>18.36</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="1">
         <v>4.41</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="1">
         <v>4.59</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="1">
         <v>75</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="1">
         <v>75</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="1">
         <v>51</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="1">
         <v>31</v>
       </c>
-      <c r="U29" t="s">
-        <v>36</v>
-      </c>
-      <c r="V29" t="s">
+      <c r="U29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="1">
         <v>8.59</v>
       </c>
-      <c r="X29">
+      <c r="X29" s="1">
         <v>7</v>
       </c>
-      <c r="Y29">
-        <v>8</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="Y29" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>2022</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>11</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>22.54</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>7.58</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>54</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="1">
         <v>54</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1">
         <v>51</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="1">
         <v>49</v>
       </c>
-      <c r="L30" t="s">
-        <v>36</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="L30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="1">
         <v>19.350000000000001</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="1">
         <v>4.3099999999999996</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="1">
         <v>4.5</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="1">
         <v>67</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="1">
         <v>67</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="1">
         <v>54</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="1">
         <v>26</v>
       </c>
-      <c r="U30" t="s">
-        <v>36</v>
-      </c>
-      <c r="V30" t="s">
+      <c r="U30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="1">
         <v>8.08</v>
       </c>
-      <c r="X30">
+      <c r="X30" s="1">
         <v>6</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" s="1">
         <v>7</v>
       </c>
-      <c r="Z30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="Z30" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>2022</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>11</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>3</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>22.49</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>7.52</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>8.14</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <v>53</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="1">
         <v>53</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="1">
         <v>51</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="1">
         <v>64</v>
       </c>
-      <c r="L31" t="s">
-        <v>36</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="L31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="1">
         <v>18.41</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="1">
         <v>4.22</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="1">
         <v>73</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="1">
         <v>73</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="1">
         <v>50</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="1">
         <v>34</v>
       </c>
-      <c r="U31" t="s">
-        <v>36</v>
-      </c>
-      <c r="V31" t="s">
+      <c r="U31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W31">
+      <c r="W31" s="1">
         <v>8.19</v>
       </c>
-      <c r="X31">
+      <c r="X31" s="1">
         <v>7</v>
       </c>
-      <c r="Y31">
+      <c r="Y31" s="1">
         <v>7</v>
       </c>
-      <c r="Z31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="Z31" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>2022</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>11</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>4</v>
       </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1">
         <v>22.48</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>9.01</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>9.24</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>56</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="1">
         <v>56</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="1">
         <v>55</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="1">
         <v>59</v>
       </c>
-      <c r="L32" t="s">
-        <v>36</v>
-      </c>
-      <c r="M32" t="s">
+      <c r="L32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="1">
         <v>19.57</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="1">
         <v>5.39</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="1">
         <v>5.59</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="1">
         <v>73</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="1">
         <v>73</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="1">
         <v>62</v>
       </c>
-      <c r="T32">
+      <c r="T32" s="1">
         <v>23</v>
       </c>
-      <c r="U32" t="s">
-        <v>36</v>
-      </c>
-      <c r="V32" t="s">
+      <c r="U32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W32">
+      <c r="W32" s="1">
         <v>9.43</v>
       </c>
-      <c r="X32">
+      <c r="X32" s="1">
         <v>6</v>
       </c>
-      <c r="Y32">
-        <v>8</v>
-      </c>
-      <c r="Z32" t="s">
+      <c r="Y32" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z32" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4258,25 +4277,25 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L46" t="s">
         <v>36</v>
@@ -4445,25 +4464,25 @@
         <v>32</v>
       </c>
       <c r="N48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U48" t="s">
         <v>36</v>
@@ -4525,25 +4544,25 @@
         <v>32</v>
       </c>
       <c r="N49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U49" t="s">
         <v>36</v>
@@ -5204,403 +5223,403 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>2023</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>1</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>9</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
         <v>23.23</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="1">
         <v>7.49</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="1">
         <v>8.1199999999999992</v>
       </c>
-      <c r="H58">
-        <v>36</v>
-      </c>
-      <c r="I58">
-        <v>36</v>
-      </c>
-      <c r="J58">
-        <v>36</v>
-      </c>
-      <c r="K58">
+      <c r="H58" s="1">
+        <v>36</v>
+      </c>
+      <c r="I58" s="1">
+        <v>36</v>
+      </c>
+      <c r="J58" s="1">
+        <v>36</v>
+      </c>
+      <c r="K58" s="1">
         <v>51</v>
       </c>
-      <c r="L58" t="s">
-        <v>36</v>
-      </c>
-      <c r="M58" t="s">
+      <c r="L58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="1">
         <v>17.43</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="1">
         <v>4.37</v>
       </c>
-      <c r="P58">
+      <c r="P58" s="1">
         <v>4.54</v>
       </c>
-      <c r="Q58">
+      <c r="Q58" s="1">
         <v>52</v>
       </c>
-      <c r="R58">
+      <c r="R58" s="1">
         <v>50</v>
       </c>
-      <c r="S58">
+      <c r="S58" s="1">
         <v>31</v>
       </c>
-      <c r="T58">
+      <c r="T58" s="1">
         <v>20</v>
       </c>
-      <c r="U58" t="s">
-        <v>36</v>
-      </c>
-      <c r="V58" t="s">
+      <c r="U58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V58" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W58">
+      <c r="W58" s="1">
         <v>8.3800000000000008</v>
       </c>
-      <c r="X58">
-        <v>8</v>
-      </c>
-      <c r="Y58">
-        <v>8</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="X58" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z58" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>2023</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>1</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>10</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="1">
         <v>22.12</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="1">
         <v>7.12</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="1">
         <v>7.34</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="1">
         <v>29</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="1">
         <v>29</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="1">
         <v>26</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="1">
         <v>50</v>
       </c>
-      <c r="L59" t="s">
-        <v>36</v>
-      </c>
-      <c r="M59" t="s">
+      <c r="L59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="1">
         <v>17.5</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="1">
         <v>3.36</v>
       </c>
-      <c r="P59">
+      <c r="P59" s="1">
         <v>3.54</v>
       </c>
-      <c r="Q59">
+      <c r="Q59" s="1">
         <v>54</v>
       </c>
-      <c r="R59">
+      <c r="R59" s="1">
         <v>55</v>
       </c>
-      <c r="S59">
+      <c r="S59" s="1">
         <v>35</v>
       </c>
-      <c r="T59">
+      <c r="T59" s="1">
         <v>32</v>
       </c>
-      <c r="U59" t="s">
-        <v>36</v>
-      </c>
-      <c r="V59" t="s">
+      <c r="U59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V59" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W59">
+      <c r="W59" s="1">
         <v>8.06</v>
       </c>
-      <c r="X59">
+      <c r="X59" s="1">
         <v>7</v>
       </c>
-      <c r="Y59">
-        <v>8</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="Y59" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z59" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>2023</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>1</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>11</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="1">
         <v>23.34</v>
       </c>
-      <c r="F60">
-        <v>8</v>
-      </c>
-      <c r="G60">
+      <c r="F60" s="1">
+        <v>8</v>
+      </c>
+      <c r="G60" s="1">
         <v>8.23</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="1">
         <v>32</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="1">
         <v>32</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="1">
         <v>30</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="1">
         <v>61</v>
       </c>
-      <c r="L60" t="s">
-        <v>36</v>
-      </c>
-      <c r="M60" t="s">
+      <c r="L60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M60" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="1">
         <v>17.399999999999999</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="1">
         <v>4.41</v>
       </c>
-      <c r="P60">
+      <c r="P60" s="1">
         <v>4.59</v>
       </c>
-      <c r="Q60">
+      <c r="Q60" s="1">
         <v>56</v>
       </c>
-      <c r="R60">
+      <c r="R60" s="1">
         <v>55</v>
       </c>
-      <c r="S60">
+      <c r="S60" s="1">
         <v>40</v>
       </c>
-      <c r="T60">
+      <c r="T60" s="1">
         <v>41</v>
       </c>
-      <c r="U60" t="s">
-        <v>36</v>
-      </c>
-      <c r="V60" t="s">
+      <c r="U60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W60">
+      <c r="W60" s="1">
         <v>8.33</v>
       </c>
-      <c r="X60">
+      <c r="X60" s="1">
         <v>7</v>
       </c>
-      <c r="Y60">
-        <v>8</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="Y60" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z60" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>2023</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>1</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>12</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="1">
         <v>21.39</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="1">
         <v>8.34</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="1">
         <v>8.5500000000000007</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="1">
         <v>51</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="1">
         <v>51</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="1">
         <v>43</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="1">
         <v>61</v>
       </c>
-      <c r="L61" t="s">
-        <v>36</v>
-      </c>
-      <c r="M61" t="s">
+      <c r="L61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M61" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="1">
         <v>21.22</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="1">
         <v>4.4800000000000004</v>
       </c>
-      <c r="P61">
+      <c r="P61" s="1">
         <v>5.08</v>
       </c>
-      <c r="Q61">
+      <c r="Q61" s="1">
         <v>60</v>
       </c>
-      <c r="R61">
+      <c r="R61" s="1">
         <v>59</v>
       </c>
-      <c r="S61">
+      <c r="S61" s="1">
         <v>56</v>
       </c>
-      <c r="T61">
+      <c r="T61" s="1">
         <v>46</v>
       </c>
-      <c r="U61" t="s">
-        <v>36</v>
-      </c>
-      <c r="V61" t="s">
+      <c r="U61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V61" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W61">
-        <v>8</v>
-      </c>
-      <c r="X61">
+      <c r="W61" s="1">
+        <v>8</v>
+      </c>
+      <c r="X61" s="1">
         <v>7</v>
       </c>
-      <c r="Y61">
-        <v>8</v>
-      </c>
-      <c r="Z61" t="s">
+      <c r="Y61" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z61" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>2023</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>1</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>13</v>
       </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62">
+      <c r="D62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="1">
         <v>22.25</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="1">
         <v>8.56</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="1">
         <v>9.18</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="1">
         <v>48</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="1">
         <v>44</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="1">
         <v>40</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="1">
         <v>42</v>
       </c>
-      <c r="L62" t="s">
-        <v>36</v>
-      </c>
-      <c r="M62" t="s">
+      <c r="L62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="1">
         <v>18.059999999999999</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="1">
         <v>4.57</v>
       </c>
-      <c r="P62">
+      <c r="P62" s="1">
         <v>5.15</v>
       </c>
-      <c r="Q62">
+      <c r="Q62" s="1">
         <v>49</v>
       </c>
-      <c r="R62">
+      <c r="R62" s="1">
         <v>46</v>
       </c>
-      <c r="S62">
+      <c r="S62" s="1">
         <v>30</v>
       </c>
-      <c r="T62">
+      <c r="T62" s="1">
         <v>16</v>
       </c>
-      <c r="U62" t="s">
-        <v>36</v>
-      </c>
-      <c r="V62" t="s">
+      <c r="U62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V62" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W62">
+      <c r="W62" s="1">
         <v>7.38</v>
       </c>
-      <c r="X62">
-        <v>8</v>
-      </c>
-      <c r="Y62">
-        <v>8</v>
-      </c>
-      <c r="Z62" t="s">
+      <c r="X62" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z62" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7924,403 +7943,403 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="92" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>2023</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="1">
         <v>3</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>27</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="1">
         <v>21.26</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="1">
         <v>6.58</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="1">
         <v>7.2</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="1">
         <v>59</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="1">
         <v>59</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="1">
         <v>59</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="1">
         <v>53</v>
       </c>
-      <c r="L92" t="s">
-        <v>36</v>
-      </c>
-      <c r="M92" t="s">
+      <c r="L92" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M92" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N92">
+      <c r="N92" s="1">
         <v>17.59</v>
       </c>
-      <c r="O92">
+      <c r="O92" s="1">
         <v>3.26</v>
       </c>
-      <c r="P92">
+      <c r="P92" s="1">
         <v>3.44</v>
       </c>
-      <c r="Q92">
+      <c r="Q92" s="1">
         <v>77</v>
       </c>
-      <c r="R92">
+      <c r="R92" s="1">
         <v>77</v>
       </c>
-      <c r="S92">
+      <c r="S92" s="1">
         <v>62</v>
       </c>
-      <c r="T92">
+      <c r="T92" s="1">
         <v>20</v>
       </c>
-      <c r="U92" t="s">
-        <v>36</v>
-      </c>
-      <c r="V92" t="s">
+      <c r="U92" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="W92">
+      <c r="W92" s="1">
         <v>7.26</v>
       </c>
-      <c r="X92">
+      <c r="X92" s="1">
         <v>9</v>
       </c>
-      <c r="Y92">
-        <v>8</v>
-      </c>
-      <c r="Z92" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="Y92" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z92" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>2023</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="1">
         <v>3</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>28</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="1">
         <v>21.15</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="1">
         <v>7</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="1">
         <v>7.21</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="1">
         <v>49</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="1">
         <v>49</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="1">
         <v>45</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="1">
         <v>52</v>
       </c>
-      <c r="L93" t="s">
-        <v>36</v>
-      </c>
-      <c r="M93" t="s">
+      <c r="L93" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M93" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N93">
+      <c r="N93" s="1">
         <v>17.3</v>
       </c>
-      <c r="O93">
+      <c r="O93" s="1">
         <v>3.33</v>
       </c>
-      <c r="P93">
+      <c r="P93" s="1">
         <v>3.5</v>
       </c>
-      <c r="Q93">
+      <c r="Q93" s="1">
         <v>68</v>
       </c>
-      <c r="R93">
+      <c r="R93" s="1">
         <v>68</v>
       </c>
-      <c r="S93">
+      <c r="S93" s="1">
         <v>46</v>
       </c>
-      <c r="T93">
+      <c r="T93" s="1">
         <v>60</v>
       </c>
-      <c r="U93" t="s">
-        <v>36</v>
-      </c>
-      <c r="V93" t="s">
+      <c r="U93" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="W93">
+      <c r="W93" s="1">
         <v>7</v>
       </c>
-      <c r="X93">
+      <c r="X93" s="1">
         <v>9</v>
       </c>
-      <c r="Y93">
-        <v>8</v>
-      </c>
-      <c r="Z93" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="Y93" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z93" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>2023</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="1">
         <v>3</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
         <v>29</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="1">
         <v>22.27</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="1">
         <v>7.03</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="1">
         <v>7.25</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="1">
         <v>42</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="1">
         <v>37</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="1">
         <v>39</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="1">
         <v>40</v>
       </c>
-      <c r="L94" t="s">
-        <v>36</v>
-      </c>
-      <c r="M94" t="s">
+      <c r="L94" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N94">
+      <c r="N94" s="1">
         <v>17.489999999999998</v>
       </c>
-      <c r="O94">
+      <c r="O94" s="1">
         <v>3.51</v>
       </c>
-      <c r="P94">
+      <c r="P94" s="1">
         <v>4.09</v>
       </c>
-      <c r="Q94">
+      <c r="Q94" s="1">
         <v>59</v>
       </c>
-      <c r="R94">
+      <c r="R94" s="1">
         <v>59</v>
       </c>
-      <c r="S94">
+      <c r="S94" s="1">
         <v>35</v>
       </c>
-      <c r="T94">
+      <c r="T94" s="1">
         <v>35</v>
       </c>
-      <c r="U94" t="s">
-        <v>36</v>
-      </c>
-      <c r="V94" t="s">
+      <c r="U94" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V94" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W94">
+      <c r="W94" s="1">
         <v>7.36</v>
       </c>
-      <c r="X94">
-        <v>8</v>
-      </c>
-      <c r="Y94">
-        <v>8</v>
-      </c>
-      <c r="Z94" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="X94" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y94" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z94" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>2023</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="1">
         <v>3</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
         <v>30</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="1">
         <v>20.260000000000002</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="1">
         <v>7.15</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="1">
         <v>7.35</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="1">
         <v>38</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="1">
         <v>38</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="1">
         <v>33</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="1">
         <v>54</v>
       </c>
-      <c r="L95" t="s">
-        <v>36</v>
-      </c>
-      <c r="M95" t="s">
+      <c r="L95" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M95" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N95">
+      <c r="N95" s="1">
         <v>18.03</v>
       </c>
-      <c r="O95">
+      <c r="O95" s="1">
         <v>3.49</v>
       </c>
-      <c r="P95">
+      <c r="P95" s="1">
         <v>4.07</v>
       </c>
-      <c r="Q95">
+      <c r="Q95" s="1">
         <v>66</v>
       </c>
-      <c r="R95">
+      <c r="R95" s="1">
         <v>66</v>
       </c>
-      <c r="S95">
+      <c r="S95" s="1">
         <v>30</v>
       </c>
-      <c r="T95">
-        <v>36</v>
-      </c>
-      <c r="U95" t="s">
-        <v>36</v>
-      </c>
-      <c r="V95" t="s">
+      <c r="T95" s="1">
+        <v>36</v>
+      </c>
+      <c r="U95" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V95" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W95">
+      <c r="W95" s="1">
         <v>8.1199999999999992</v>
       </c>
-      <c r="X95">
-        <v>8</v>
-      </c>
-      <c r="Y95">
+      <c r="X95" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y95" s="1">
         <v>7</v>
       </c>
-      <c r="Z95" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="Z95" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>2023</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="1">
         <v>3</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
         <v>31</v>
       </c>
-      <c r="D96" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96">
+      <c r="D96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="1">
         <v>22.17</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="1">
         <v>7.43</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="1">
         <v>9.0500000000000007</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="1">
         <v>54</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="1">
         <v>52</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="1">
         <v>49</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="1">
         <v>46</v>
       </c>
-      <c r="L96" t="s">
-        <v>36</v>
-      </c>
-      <c r="M96" t="s">
+      <c r="L96" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M96" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N96">
+      <c r="N96" s="1">
         <v>18.14</v>
       </c>
-      <c r="O96">
+      <c r="O96" s="1">
         <v>4.58</v>
       </c>
-      <c r="P96">
+      <c r="P96" s="1">
         <v>5.16</v>
       </c>
-      <c r="Q96">
+      <c r="Q96" s="1">
         <v>69</v>
       </c>
-      <c r="R96">
+      <c r="R96" s="1">
         <v>69</v>
       </c>
-      <c r="S96">
+      <c r="S96" s="1">
         <v>56</v>
       </c>
-      <c r="T96">
+      <c r="T96" s="1">
         <v>58</v>
       </c>
-      <c r="U96" t="s">
-        <v>36</v>
-      </c>
-      <c r="V96" t="s">
+      <c r="U96" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V96" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W96">
+      <c r="W96" s="1">
         <v>9.14</v>
       </c>
-      <c r="X96">
-        <v>8</v>
-      </c>
-      <c r="Y96">
+      <c r="X96" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y96" s="1">
         <v>9</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Z96" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8365,13 +8384,13 @@
         <v>17</v>
       </c>
       <c r="N97">
-        <v>18.14</v>
+        <v>4.25</v>
       </c>
       <c r="O97">
         <v>4.07</v>
       </c>
       <c r="P97">
-        <v>4.25</v>
+        <v>18.14</v>
       </c>
       <c r="Q97">
         <v>73</v>
@@ -10164,803 +10183,803 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A120">
+    <row r="120" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>2023</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="1">
         <v>6</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="1">
         <v>5</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="1">
         <v>20.260000000000002</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="1">
         <v>7.11</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="1">
         <v>7.31</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="1">
         <v>59</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="1">
         <v>59</v>
       </c>
-      <c r="J120">
+      <c r="J120" s="1">
         <v>57</v>
       </c>
-      <c r="K120">
+      <c r="K120" s="1">
         <v>31</v>
       </c>
-      <c r="L120">
+      <c r="L120" s="1">
         <v>0</v>
       </c>
-      <c r="M120" t="s">
+      <c r="M120" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N120">
+      <c r="N120" s="1">
         <v>19.12</v>
       </c>
-      <c r="O120">
+      <c r="O120" s="1">
         <v>3.36</v>
       </c>
-      <c r="P120">
+      <c r="P120" s="1">
         <v>3.55</v>
       </c>
-      <c r="Q120">
+      <c r="Q120" s="1">
         <v>80</v>
       </c>
-      <c r="R120">
+      <c r="R120" s="1">
         <v>80</v>
       </c>
-      <c r="S120">
+      <c r="S120" s="1">
         <v>52</v>
       </c>
-      <c r="T120">
+      <c r="T120" s="1">
         <v>32</v>
       </c>
-      <c r="U120">
+      <c r="U120" s="1">
         <v>6</v>
       </c>
-      <c r="V120" t="s">
+      <c r="V120" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W120">
+      <c r="W120" s="1">
         <v>7.43</v>
       </c>
-      <c r="X120">
-        <v>8</v>
-      </c>
-      <c r="Y120">
-        <v>8</v>
-      </c>
-      <c r="Z120" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="X120" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y120" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z120" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>2023</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="1">
         <v>6</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="1">
         <v>6</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="1">
         <v>20.5</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="1">
         <v>7.21</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="1">
         <v>7.41</v>
       </c>
-      <c r="H121">
+      <c r="H121" s="1">
         <v>64</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="1">
         <v>64</v>
       </c>
-      <c r="J121">
+      <c r="J121" s="1">
         <v>61</v>
       </c>
-      <c r="K121">
+      <c r="K121" s="1">
         <v>53</v>
       </c>
-      <c r="L121">
+      <c r="L121" s="1">
         <v>1</v>
       </c>
-      <c r="M121" t="s">
+      <c r="M121" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N121">
+      <c r="N121" s="1">
         <v>18.32</v>
       </c>
-      <c r="O121">
+      <c r="O121" s="1">
         <v>3.53</v>
       </c>
-      <c r="P121">
+      <c r="P121" s="1">
         <v>4.12</v>
       </c>
-      <c r="Q121">
+      <c r="Q121" s="1">
         <v>83</v>
       </c>
-      <c r="R121">
+      <c r="R121" s="1">
         <v>83</v>
       </c>
-      <c r="S121">
+      <c r="S121" s="1">
         <v>51</v>
       </c>
-      <c r="T121">
+      <c r="T121" s="1">
         <v>68</v>
       </c>
-      <c r="U121">
+      <c r="U121" s="1">
         <v>6</v>
       </c>
-      <c r="V121" t="s">
+      <c r="V121" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W121">
+      <c r="W121" s="1">
         <v>7.48</v>
       </c>
-      <c r="X121">
-        <v>8</v>
-      </c>
-      <c r="Y121">
+      <c r="X121" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y121" s="1">
         <v>9</v>
       </c>
-      <c r="Z121" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="Z121" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
         <v>2023</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="1">
         <v>6</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="1">
         <v>7</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="1">
         <v>20.420000000000002</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="1">
         <v>7.15</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="1">
         <v>7.36</v>
       </c>
-      <c r="H122">
+      <c r="H122" s="1">
         <v>63</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="1">
         <v>63</v>
       </c>
-      <c r="J122">
+      <c r="J122" s="1">
         <v>54</v>
       </c>
-      <c r="K122">
+      <c r="K122" s="1">
         <v>120</v>
       </c>
-      <c r="L122">
+      <c r="L122" s="1">
         <v>0</v>
       </c>
-      <c r="M122" t="s">
+      <c r="M122" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N122">
+      <c r="N122" s="1">
         <v>17.510000000000002</v>
       </c>
-      <c r="O122">
+      <c r="O122" s="1">
         <v>4.5199999999999996</v>
       </c>
-      <c r="P122">
+      <c r="P122" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Q122">
+      <c r="Q122" s="1">
         <v>66</v>
       </c>
-      <c r="R122">
+      <c r="R122" s="1">
         <v>66</v>
       </c>
-      <c r="S122">
+      <c r="S122" s="1">
         <v>62</v>
       </c>
-      <c r="T122">
+      <c r="T122" s="1">
         <v>85</v>
       </c>
-      <c r="U122">
+      <c r="U122" s="1">
         <v>4</v>
       </c>
-      <c r="V122" t="s">
+      <c r="V122" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W122">
+      <c r="W122" s="1">
         <v>8.14</v>
       </c>
-      <c r="X122">
-        <v>8</v>
-      </c>
-      <c r="Y122">
-        <v>8</v>
-      </c>
-      <c r="Z122" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="X122" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y122" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z122" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
         <v>2023</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="1">
         <v>6</v>
       </c>
-      <c r="C123">
-        <v>8</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="C123" s="1">
+        <v>8</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="1">
         <v>20.170000000000002</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="1">
         <v>7.21</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="1">
         <v>7.41</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="1">
         <v>59</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="1">
         <v>59</v>
       </c>
-      <c r="J123">
+      <c r="J123" s="1">
         <v>54</v>
       </c>
-      <c r="K123">
+      <c r="K123" s="1">
         <v>65</v>
       </c>
-      <c r="L123">
+      <c r="L123" s="1">
         <v>0</v>
       </c>
-      <c r="M123" t="s">
+      <c r="M123" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N123">
+      <c r="N123" s="1">
         <v>18.59</v>
       </c>
-      <c r="O123">
+      <c r="O123" s="1">
         <v>3.53</v>
       </c>
-      <c r="P123">
+      <c r="P123" s="1">
         <v>4.12</v>
       </c>
-      <c r="Q123">
+      <c r="Q123" s="1">
         <v>78</v>
       </c>
-      <c r="R123">
+      <c r="R123" s="1">
         <v>78</v>
       </c>
-      <c r="S123">
+      <c r="S123" s="1">
         <v>44</v>
       </c>
-      <c r="T123">
+      <c r="T123" s="1">
         <v>101</v>
       </c>
-      <c r="U123">
+      <c r="U123" s="1">
         <v>5</v>
       </c>
-      <c r="V123" t="s">
+      <c r="V123" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W123">
+      <c r="W123" s="1">
         <v>8.19</v>
       </c>
-      <c r="X123">
+      <c r="X123" s="1">
         <v>7</v>
       </c>
-      <c r="Y123">
+      <c r="Y123" s="1">
         <v>7</v>
       </c>
-      <c r="Z123" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="Z123" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
         <v>2023</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="1">
         <v>6</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="1">
         <v>9</v>
       </c>
-      <c r="D124" t="s">
-        <v>8</v>
-      </c>
-      <c r="E124">
+      <c r="D124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="1">
         <v>22.07</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="1">
         <v>7.3</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="1">
         <v>7.52</v>
       </c>
-      <c r="H124">
+      <c r="H124" s="1">
         <v>55</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="1">
         <v>55</v>
       </c>
-      <c r="J124">
+      <c r="J124" s="1">
         <v>48</v>
       </c>
-      <c r="K124">
+      <c r="K124" s="1">
         <v>95</v>
       </c>
-      <c r="L124">
+      <c r="L124" s="1">
         <v>1</v>
       </c>
-      <c r="M124" t="s">
+      <c r="M124" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N124">
+      <c r="N124" s="1">
         <v>18.12</v>
       </c>
-      <c r="O124">
+      <c r="O124" s="1">
         <v>3.57</v>
       </c>
-      <c r="P124">
+      <c r="P124" s="1">
         <v>4.1500000000000004</v>
       </c>
-      <c r="Q124">
+      <c r="Q124" s="1">
         <v>79</v>
       </c>
-      <c r="R124">
+      <c r="R124" s="1">
         <v>79</v>
       </c>
-      <c r="S124">
+      <c r="S124" s="1">
         <v>45</v>
       </c>
-      <c r="T124">
+      <c r="T124" s="1">
         <v>103</v>
       </c>
-      <c r="U124">
+      <c r="U124" s="1">
         <v>6</v>
       </c>
-      <c r="V124" t="s">
+      <c r="V124" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W124">
+      <c r="W124" s="1">
         <v>8.3000000000000007</v>
       </c>
-      <c r="X124">
-        <v>8</v>
-      </c>
-      <c r="Y124">
-        <v>8</v>
-      </c>
-      <c r="Z124" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="X124" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y124" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z124" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
         <v>2023</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="1">
         <v>6</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="1">
         <v>12</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="1">
         <v>21.55</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="1">
         <v>7.11</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="1">
         <v>7.32</v>
       </c>
-      <c r="H125">
+      <c r="H125" s="1">
         <v>69</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="1">
         <v>69</v>
       </c>
-      <c r="J125">
+      <c r="J125" s="1">
         <v>65</v>
       </c>
-      <c r="K125">
+      <c r="K125" s="1">
         <v>54</v>
       </c>
-      <c r="L125">
+      <c r="L125" s="1">
         <v>0</v>
       </c>
-      <c r="M125" t="s">
+      <c r="M125" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N125">
+      <c r="N125" s="1">
         <v>19.09</v>
       </c>
-      <c r="O125">
+      <c r="O125" s="1">
         <v>4.41</v>
       </c>
-      <c r="P125">
+      <c r="P125" s="1">
         <v>5</v>
       </c>
-      <c r="Q125">
+      <c r="Q125" s="1">
         <v>84</v>
       </c>
-      <c r="R125">
+      <c r="R125" s="1">
         <v>87</v>
       </c>
-      <c r="S125">
+      <c r="S125" s="1">
         <v>65</v>
       </c>
-      <c r="T125">
+      <c r="T125" s="1">
         <v>39</v>
       </c>
-      <c r="U125">
+      <c r="U125" s="1">
         <v>3</v>
       </c>
-      <c r="V125" t="s">
+      <c r="V125" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="W125">
+      <c r="W125" s="1">
         <v>7.31</v>
       </c>
-      <c r="X125">
-        <v>8</v>
-      </c>
-      <c r="Y125">
-        <v>8</v>
-      </c>
-      <c r="Z125" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="X125" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y125" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z125" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
         <v>2023</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="1">
         <v>6</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="1">
         <v>13</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="1">
         <v>21.4</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="1">
         <v>7.17</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="1">
         <v>7.38</v>
       </c>
-      <c r="H126">
+      <c r="H126" s="1">
         <v>63</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="1">
         <v>63</v>
       </c>
-      <c r="J126">
+      <c r="J126" s="1">
         <v>56</v>
       </c>
-      <c r="K126">
+      <c r="K126" s="1">
         <v>39</v>
       </c>
-      <c r="L126">
+      <c r="L126" s="1">
         <v>0</v>
       </c>
-      <c r="M126" t="s">
+      <c r="M126" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N126">
+      <c r="N126" s="1">
         <v>19.09</v>
       </c>
-      <c r="O126">
+      <c r="O126" s="1">
         <v>3.21</v>
       </c>
-      <c r="P126">
+      <c r="P126" s="1">
         <v>3.4</v>
       </c>
-      <c r="Q126">
+      <c r="Q126" s="1">
         <v>82</v>
       </c>
-      <c r="R126">
+      <c r="R126" s="1">
         <v>82</v>
       </c>
-      <c r="S126">
+      <c r="S126" s="1">
         <v>54</v>
       </c>
-      <c r="T126">
+      <c r="T126" s="1">
         <v>35</v>
       </c>
-      <c r="U126">
+      <c r="U126" s="1">
         <v>6</v>
       </c>
-      <c r="V126" t="s">
+      <c r="V126" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W126">
+      <c r="W126" s="1">
         <v>8.43</v>
       </c>
-      <c r="X126">
-        <v>8</v>
-      </c>
-      <c r="Y126">
-        <v>8</v>
-      </c>
-      <c r="Z126" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="X126" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y126" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z126" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>2023</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="1">
         <v>6</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="1">
         <v>14</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="1">
         <v>20.46</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="1">
         <v>7.16</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="1">
         <v>7.27</v>
       </c>
-      <c r="H127">
+      <c r="H127" s="1">
         <v>61</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="1">
         <v>61</v>
       </c>
-      <c r="J127">
+      <c r="J127" s="1">
         <v>53</v>
       </c>
-      <c r="K127">
+      <c r="K127" s="1">
         <v>55</v>
       </c>
-      <c r="L127">
+      <c r="L127" s="1">
         <v>0</v>
       </c>
-      <c r="M127" t="s">
+      <c r="M127" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N127">
+      <c r="N127" s="1">
         <v>17.3</v>
       </c>
-      <c r="O127">
+      <c r="O127" s="1">
         <v>4.03</v>
       </c>
-      <c r="P127">
+      <c r="P127" s="1">
         <v>4.2</v>
       </c>
-      <c r="Q127">
+      <c r="Q127" s="1">
         <v>87</v>
       </c>
-      <c r="R127">
+      <c r="R127" s="1">
         <v>87</v>
       </c>
-      <c r="S127">
+      <c r="S127" s="1">
         <v>52</v>
       </c>
-      <c r="T127">
+      <c r="T127" s="1">
         <v>50</v>
       </c>
-      <c r="U127">
+      <c r="U127" s="1">
         <v>5</v>
       </c>
-      <c r="V127" t="s">
+      <c r="V127" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W127">
+      <c r="W127" s="1">
         <v>8.1</v>
       </c>
-      <c r="X127">
+      <c r="X127" s="1">
         <v>7</v>
       </c>
-      <c r="Y127">
+      <c r="Y127" s="1">
         <v>6</v>
       </c>
-      <c r="Z127" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="Z127" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>2023</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="1">
         <v>6</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="1">
         <v>15</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="1">
         <v>21.44</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="1">
         <v>7.18</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="1">
         <v>7.4</v>
       </c>
-      <c r="H128">
+      <c r="H128" s="1">
         <v>66</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="1">
         <v>66</v>
       </c>
-      <c r="J128">
+      <c r="J128" s="1">
         <v>63</v>
       </c>
-      <c r="K128">
+      <c r="K128" s="1">
         <v>49</v>
       </c>
-      <c r="L128">
+      <c r="L128" s="1">
         <v>0</v>
       </c>
-      <c r="M128" t="s">
+      <c r="M128" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N128">
+      <c r="N128" s="1">
         <v>18.190000000000001</v>
       </c>
-      <c r="O128">
+      <c r="O128" s="1">
         <v>3.59</v>
       </c>
-      <c r="P128">
+      <c r="P128" s="1">
         <v>4.17</v>
       </c>
-      <c r="Q128">
+      <c r="Q128" s="1">
         <v>85</v>
       </c>
-      <c r="R128">
+      <c r="R128" s="1">
         <v>86</v>
       </c>
-      <c r="S128">
+      <c r="S128" s="1">
         <v>61</v>
       </c>
-      <c r="T128">
+      <c r="T128" s="1">
         <v>53</v>
       </c>
-      <c r="U128">
+      <c r="U128" s="1">
         <v>4</v>
       </c>
-      <c r="V128" t="s">
+      <c r="V128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="W128">
+      <c r="W128" s="1">
         <v>8.07</v>
       </c>
-      <c r="X128">
+      <c r="X128" s="1">
         <v>7</v>
       </c>
-      <c r="Y128">
-        <v>8</v>
-      </c>
-      <c r="Z128" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="Y128" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z128" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
         <v>2023</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="1">
         <v>6</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="1">
         <v>16</v>
       </c>
-      <c r="D129" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129">
+      <c r="D129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="1">
         <v>21.26</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="1">
         <v>7.35</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="1">
         <v>7.56</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="1">
         <v>69</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="1">
         <v>69</v>
       </c>
-      <c r="J129">
+      <c r="J129" s="1">
         <v>66</v>
       </c>
-      <c r="K129">
+      <c r="K129" s="1">
         <v>68</v>
       </c>
-      <c r="L129">
+      <c r="L129" s="1">
         <v>1</v>
       </c>
-      <c r="M129" t="s">
+      <c r="M129" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N129">
+      <c r="N129" s="1">
         <v>18.190000000000001</v>
       </c>
-      <c r="O129">
+      <c r="O129" s="1">
         <v>4.38</v>
       </c>
-      <c r="P129">
+      <c r="P129" s="1">
         <v>4.57</v>
       </c>
-      <c r="Q129">
+      <c r="Q129" s="1">
         <v>87</v>
       </c>
-      <c r="R129">
+      <c r="R129" s="1">
         <v>88</v>
       </c>
-      <c r="S129">
+      <c r="S129" s="1">
         <v>60</v>
       </c>
-      <c r="T129">
+      <c r="T129" s="1">
         <v>67</v>
       </c>
-      <c r="U129">
+      <c r="U129" s="1">
         <v>3</v>
       </c>
-      <c r="V129" t="s">
+      <c r="V129" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W129">
+      <c r="W129" s="1">
         <v>7.4</v>
       </c>
-      <c r="X129">
-        <v>8</v>
-      </c>
-      <c r="Y129">
-        <v>8</v>
-      </c>
-      <c r="Z129" t="s">
+      <c r="X129" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y129" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z129" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11764,403 +11783,403 @@
         <v>59</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A140">
+    <row r="140" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
         <v>2023</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="1">
         <v>7</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="1">
         <v>17</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="1">
         <v>20.22</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="1">
         <v>7</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="1">
         <v>7.22</v>
       </c>
-      <c r="H140">
+      <c r="H140" s="1">
         <v>72</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="1">
         <v>74</v>
       </c>
-      <c r="J140">
+      <c r="J140" s="1">
         <v>66</v>
       </c>
-      <c r="K140">
+      <c r="K140" s="1">
         <v>72</v>
       </c>
-      <c r="L140">
+      <c r="L140" s="1">
         <v>0</v>
       </c>
-      <c r="M140" t="s">
+      <c r="M140" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N140">
+      <c r="N140" s="1">
         <v>16.079999999999998</v>
       </c>
-      <c r="O140">
+      <c r="O140" s="1">
         <v>2.2400000000000002</v>
       </c>
-      <c r="P140">
+      <c r="P140" s="1">
         <v>2.4</v>
       </c>
-      <c r="Q140">
+      <c r="Q140" s="1">
         <v>90</v>
       </c>
-      <c r="R140">
+      <c r="R140" s="1">
         <v>92</v>
       </c>
-      <c r="S140">
+      <c r="S140" s="1">
         <v>65</v>
       </c>
-      <c r="T140">
+      <c r="T140" s="1">
         <v>106</v>
       </c>
-      <c r="U140">
+      <c r="U140" s="1">
         <v>6</v>
       </c>
-      <c r="V140" t="s">
+      <c r="V140" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W140">
+      <c r="W140" s="1">
         <v>6.57</v>
       </c>
-      <c r="X140">
-        <v>8</v>
-      </c>
-      <c r="Y140">
+      <c r="X140" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y140" s="1">
         <v>9</v>
       </c>
-      <c r="Z140" t="s">
+      <c r="Z140" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A141">
+    <row r="141" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
         <v>2023</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="1">
         <v>7</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="1">
         <v>18</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="1">
         <v>20.21</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="1">
         <v>7.21</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="1">
         <v>7.41</v>
       </c>
-      <c r="H141">
+      <c r="H141" s="1">
         <v>72</v>
       </c>
-      <c r="I141">
+      <c r="I141" s="1">
         <v>74</v>
       </c>
-      <c r="J141">
+      <c r="J141" s="1">
         <v>66</v>
       </c>
-      <c r="K141">
+      <c r="K141" s="1">
         <v>152</v>
       </c>
-      <c r="L141">
+      <c r="L141" s="1">
         <v>1</v>
       </c>
-      <c r="M141" t="s">
+      <c r="M141" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N141">
+      <c r="N141" s="1">
         <v>16.22</v>
       </c>
-      <c r="O141">
+      <c r="O141" s="1">
         <v>3.59</v>
       </c>
-      <c r="P141">
+      <c r="P141" s="1">
         <v>4.1500000000000004</v>
       </c>
-      <c r="Q141">
+      <c r="Q141" s="1">
         <v>92</v>
       </c>
-      <c r="R141">
+      <c r="R141" s="1">
         <v>96</v>
       </c>
-      <c r="S141">
+      <c r="S141" s="1">
         <v>66</v>
       </c>
-      <c r="T141">
+      <c r="T141" s="1">
         <v>92</v>
       </c>
-      <c r="U141">
+      <c r="U141" s="1">
         <v>5</v>
       </c>
-      <c r="V141" t="s">
+      <c r="V141" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W141">
+      <c r="W141" s="1">
         <v>7.5</v>
       </c>
-      <c r="X141">
-        <v>8</v>
-      </c>
-      <c r="Y141">
-        <v>8</v>
-      </c>
-      <c r="Z141" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="X141" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y141" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z141" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
         <v>2023</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="1">
         <v>7</v>
       </c>
-      <c r="C142">
-        <v>19</v>
-      </c>
-      <c r="D142" t="s">
+      <c r="C142" s="1">
+        <v>19</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="1">
         <v>20.420000000000002</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="1">
         <v>7.28</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="1">
         <v>7.48</v>
       </c>
-      <c r="H142">
+      <c r="H142" s="1">
         <v>77</v>
       </c>
-      <c r="I142">
+      <c r="I142" s="1">
         <v>82</v>
       </c>
-      <c r="J142">
+      <c r="J142" s="1">
         <v>73</v>
       </c>
-      <c r="K142">
+      <c r="K142" s="1">
         <v>108</v>
       </c>
-      <c r="L142">
+      <c r="L142" s="1">
         <v>1</v>
       </c>
-      <c r="M142" t="s">
+      <c r="M142" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N142">
+      <c r="N142" s="1">
         <v>15.48</v>
       </c>
-      <c r="O142">
+      <c r="O142" s="1">
         <v>4.17</v>
       </c>
-      <c r="P142">
+      <c r="P142" s="1">
         <v>4.33</v>
       </c>
-      <c r="Q142">
+      <c r="Q142" s="1">
         <v>89</v>
       </c>
-      <c r="R142">
+      <c r="R142" s="1">
         <v>95</v>
       </c>
-      <c r="S142">
+      <c r="S142" s="1">
         <v>73</v>
       </c>
-      <c r="T142">
+      <c r="T142" s="1">
         <v>74</v>
       </c>
-      <c r="U142">
+      <c r="U142" s="1">
         <v>4</v>
       </c>
-      <c r="V142" t="s">
+      <c r="V142" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="W142">
+      <c r="W142" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="X142">
+      <c r="X142" s="1">
         <v>7</v>
       </c>
-      <c r="Y142">
-        <v>8</v>
-      </c>
-      <c r="Z142" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="Y142" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z142" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
         <v>2023</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="1">
         <v>7</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="1">
         <v>20</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="1">
         <v>23.17</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="1">
         <v>7.25</v>
       </c>
-      <c r="G143">
+      <c r="G143" s="1">
         <v>7.48</v>
       </c>
-      <c r="H143">
+      <c r="H143" s="1">
         <v>74</v>
       </c>
-      <c r="I143">
+      <c r="I143" s="1">
         <v>78</v>
       </c>
-      <c r="J143">
+      <c r="J143" s="1">
         <v>69</v>
       </c>
-      <c r="K143">
+      <c r="K143" s="1">
         <v>49</v>
       </c>
-      <c r="L143">
+      <c r="L143" s="1">
         <v>1</v>
       </c>
-      <c r="M143" t="s">
+      <c r="M143" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N143">
+      <c r="N143" s="1">
         <v>16.239999999999998</v>
       </c>
-      <c r="O143">
+      <c r="O143" s="1">
         <v>4.28</v>
       </c>
-      <c r="P143">
+      <c r="P143" s="1">
         <v>4.4400000000000004</v>
       </c>
-      <c r="Q143">
+      <c r="Q143" s="1">
         <v>89</v>
       </c>
-      <c r="R143">
+      <c r="R143" s="1">
         <v>95</v>
       </c>
-      <c r="S143">
+      <c r="S143" s="1">
         <v>71</v>
       </c>
-      <c r="T143">
+      <c r="T143" s="1">
         <v>29</v>
       </c>
-      <c r="U143">
+      <c r="U143" s="1">
         <v>3</v>
       </c>
-      <c r="V143" t="s">
+      <c r="V143" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="W143">
+      <c r="W143" s="1">
         <v>8.3800000000000008</v>
       </c>
-      <c r="X143">
-        <v>8</v>
-      </c>
-      <c r="Y143">
-        <v>8</v>
-      </c>
-      <c r="Z143" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="X143" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y143" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z143" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>2023</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="1">
         <v>7</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="1">
         <v>21</v>
       </c>
-      <c r="D144" t="s">
-        <v>8</v>
-      </c>
-      <c r="E144">
+      <c r="D144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" s="1">
         <v>21.08</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="1">
         <v>7.42</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="1">
         <v>8.0299999999999994</v>
       </c>
-      <c r="H144">
+      <c r="H144" s="1">
         <v>76</v>
       </c>
-      <c r="I144">
+      <c r="I144" s="1">
         <v>80</v>
       </c>
-      <c r="J144">
+      <c r="J144" s="1">
         <v>70</v>
       </c>
-      <c r="K144">
+      <c r="K144" s="1">
         <v>43</v>
       </c>
-      <c r="L144">
+      <c r="L144" s="1">
         <v>1</v>
       </c>
-      <c r="M144" t="s">
+      <c r="M144" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N144">
+      <c r="N144" s="1">
         <v>15.33</v>
       </c>
-      <c r="O144">
+      <c r="O144" s="1">
         <v>4.2</v>
       </c>
-      <c r="P144">
+      <c r="P144" s="1">
         <v>4.3499999999999996</v>
       </c>
-      <c r="Q144">
+      <c r="Q144" s="1">
         <v>91</v>
       </c>
-      <c r="R144">
+      <c r="R144" s="1">
         <v>95</v>
       </c>
-      <c r="S144">
+      <c r="S144" s="1">
         <v>67</v>
       </c>
-      <c r="T144">
+      <c r="T144" s="1">
         <v>34</v>
       </c>
-      <c r="U144">
+      <c r="U144" s="1">
         <v>4</v>
       </c>
-      <c r="V144" t="s">
+      <c r="V144" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W144">
+      <c r="W144" s="1">
         <v>8.3699999999999992</v>
       </c>
-      <c r="X144">
+      <c r="X144" s="1">
         <v>7</v>
       </c>
-      <c r="Y144">
-        <v>8</v>
-      </c>
-      <c r="Z144" t="s">
+      <c r="Y144" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z144" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -14644,74 +14663,74 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2023</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B176" s="2">
         <v>10</v>
       </c>
-      <c r="C176" s="1">
+      <c r="C176" s="2">
         <v>20</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E176" s="1">
+      <c r="D176" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E176" s="2">
         <v>21.41</v>
       </c>
-      <c r="F176" s="1">
+      <c r="F176" s="2">
         <v>8.33</v>
       </c>
-      <c r="G176" s="1">
+      <c r="G176" s="2">
         <v>8.5500000000000007</v>
       </c>
-      <c r="H176" s="1">
+      <c r="H176" s="2">
         <v>58</v>
       </c>
-      <c r="I176" s="1">
+      <c r="I176" s="2">
         <v>58</v>
       </c>
-      <c r="J176" s="1">
+      <c r="J176" s="2">
         <v>52</v>
       </c>
-      <c r="K176" s="1">
+      <c r="K176" s="2">
         <v>53</v>
       </c>
-      <c r="L176" s="1">
+      <c r="L176" s="2">
         <v>1</v>
       </c>
-      <c r="M176" s="1" t="s">
+      <c r="M176" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N176" s="1">
+      <c r="N176" s="2">
         <v>20.47</v>
       </c>
-      <c r="O176" s="1">
+      <c r="O176" s="2">
         <v>5.3</v>
       </c>
-      <c r="P176" s="1">
+      <c r="P176" s="2">
         <v>5.51</v>
       </c>
-      <c r="Q176" s="1">
+      <c r="Q176" s="2">
         <v>61</v>
       </c>
-      <c r="R176" s="1">
+      <c r="R176" s="2">
         <v>61</v>
       </c>
-      <c r="S176" s="1">
+      <c r="S176" s="2">
         <v>56</v>
       </c>
-      <c r="T176" s="1">
+      <c r="T176" s="2">
         <v>30</v>
       </c>
-      <c r="U176" s="1">
+      <c r="U176" s="2">
         <v>0</v>
       </c>
-      <c r="V176" s="1" t="s">
+      <c r="V176" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="W176" s="1">
+      <c r="W176" s="2">
         <v>7.54</v>
       </c>
       <c r="X176" t="s">
@@ -14720,7 +14739,7 @@
       <c r="Y176" t="s">
         <v>36</v>
       </c>
-      <c r="Z176" s="1" t="s">
+      <c r="Z176" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -15253,25 +15272,25 @@
       <c r="P183">
         <v>4.43</v>
       </c>
-      <c r="Q183" s="1">
+      <c r="Q183" s="2">
         <v>72</v>
       </c>
-      <c r="R183" s="1">
+      <c r="R183" s="2">
         <v>72</v>
       </c>
-      <c r="S183" s="1">
+      <c r="S183" s="2">
         <v>53</v>
       </c>
-      <c r="T183" s="1">
+      <c r="T183" s="2">
         <v>54</v>
       </c>
-      <c r="U183" s="1">
+      <c r="U183" s="2">
         <v>0</v>
       </c>
-      <c r="V183" s="1" t="s">
+      <c r="V183" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W183" s="1">
+      <c r="W183" s="2">
         <v>7.49</v>
       </c>
       <c r="X183">
@@ -15841,6 +15860,2806 @@
         <v>9</v>
       </c>
       <c r="Z190" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>2023</v>
+      </c>
+      <c r="B191">
+        <v>11</v>
+      </c>
+      <c r="C191">
+        <v>30</v>
+      </c>
+      <c r="D191" t="s">
+        <v>18</v>
+      </c>
+      <c r="E191">
+        <v>23.2</v>
+      </c>
+      <c r="F191">
+        <v>8.06</v>
+      </c>
+      <c r="G191">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="H191">
+        <v>35</v>
+      </c>
+      <c r="I191">
+        <v>33</v>
+      </c>
+      <c r="J191">
+        <v>27</v>
+      </c>
+      <c r="K191">
+        <v>69</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191" t="s">
+        <v>33</v>
+      </c>
+      <c r="N191">
+        <v>17.48</v>
+      </c>
+      <c r="O191">
+        <v>4.2</v>
+      </c>
+      <c r="P191">
+        <v>4.38</v>
+      </c>
+      <c r="Q191">
+        <v>53</v>
+      </c>
+      <c r="R191">
+        <v>51</v>
+      </c>
+      <c r="S191">
+        <v>35</v>
+      </c>
+      <c r="T191">
+        <v>28</v>
+      </c>
+      <c r="U191">
+        <v>0</v>
+      </c>
+      <c r="V191" t="s">
+        <v>17</v>
+      </c>
+      <c r="W191">
+        <v>7.49</v>
+      </c>
+      <c r="X191">
+        <v>8</v>
+      </c>
+      <c r="Y191">
+        <v>8</v>
+      </c>
+      <c r="Z191" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>2023</v>
+      </c>
+      <c r="B192">
+        <v>12</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192" t="s">
+        <v>8</v>
+      </c>
+      <c r="E192">
+        <v>21.58</v>
+      </c>
+      <c r="F192">
+        <v>9.25</v>
+      </c>
+      <c r="G192">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="H192">
+        <v>47</v>
+      </c>
+      <c r="I192">
+        <v>45</v>
+      </c>
+      <c r="J192">
+        <v>37</v>
+      </c>
+      <c r="K192">
+        <v>75</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192" t="s">
+        <v>49</v>
+      </c>
+      <c r="N192">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="O192">
+        <v>4.37</v>
+      </c>
+      <c r="P192">
+        <v>4.54</v>
+      </c>
+      <c r="Q192">
+        <v>59</v>
+      </c>
+      <c r="R192">
+        <v>58</v>
+      </c>
+      <c r="S192">
+        <v>53</v>
+      </c>
+      <c r="T192">
+        <v>47</v>
+      </c>
+      <c r="U192">
+        <v>0</v>
+      </c>
+      <c r="V192" t="s">
+        <v>32</v>
+      </c>
+      <c r="W192">
+        <v>8.1</v>
+      </c>
+      <c r="X192">
+        <v>8</v>
+      </c>
+      <c r="Y192">
+        <v>8</v>
+      </c>
+      <c r="Z192" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>2023</v>
+      </c>
+      <c r="B193">
+        <v>12</v>
+      </c>
+      <c r="C193">
+        <v>5</v>
+      </c>
+      <c r="D193" t="s">
+        <v>23</v>
+      </c>
+      <c r="E193">
+        <v>23.15</v>
+      </c>
+      <c r="F193">
+        <v>8.15</v>
+      </c>
+      <c r="G193">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="H193">
+        <v>43</v>
+      </c>
+      <c r="I193">
+        <v>40</v>
+      </c>
+      <c r="J193">
+        <v>35</v>
+      </c>
+      <c r="K193">
+        <v>46</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193" t="s">
+        <v>17</v>
+      </c>
+      <c r="N193">
+        <v>18.09</v>
+      </c>
+      <c r="O193">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="P193">
+        <v>4.54</v>
+      </c>
+      <c r="Q193">
+        <v>53</v>
+      </c>
+      <c r="R193">
+        <v>52</v>
+      </c>
+      <c r="S193">
+        <v>39</v>
+      </c>
+      <c r="T193">
+        <v>26</v>
+      </c>
+      <c r="U193">
+        <v>0</v>
+      </c>
+      <c r="V193" t="s">
+        <v>34</v>
+      </c>
+      <c r="W193">
+        <v>7.47</v>
+      </c>
+      <c r="X193">
+        <v>8</v>
+      </c>
+      <c r="Y193">
+        <v>8</v>
+      </c>
+      <c r="Z193" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>2023</v>
+      </c>
+      <c r="B194">
+        <v>12</v>
+      </c>
+      <c r="C194">
+        <v>7</v>
+      </c>
+      <c r="D194" t="s">
+        <v>18</v>
+      </c>
+      <c r="E194">
+        <v>22.52</v>
+      </c>
+      <c r="F194">
+        <v>8.06</v>
+      </c>
+      <c r="G194">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="H194">
+        <v>34</v>
+      </c>
+      <c r="I194">
+        <v>32</v>
+      </c>
+      <c r="J194">
+        <v>27</v>
+      </c>
+      <c r="K194">
+        <v>46</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194" t="s">
+        <v>17</v>
+      </c>
+      <c r="N194">
+        <v>16.57</v>
+      </c>
+      <c r="O194">
+        <v>3.58</v>
+      </c>
+      <c r="P194">
+        <v>4.16</v>
+      </c>
+      <c r="Q194">
+        <v>50</v>
+      </c>
+      <c r="R194">
+        <v>49</v>
+      </c>
+      <c r="S194">
+        <v>32</v>
+      </c>
+      <c r="T194">
+        <v>27</v>
+      </c>
+      <c r="U194">
+        <v>0</v>
+      </c>
+      <c r="V194" t="s">
+        <v>17</v>
+      </c>
+      <c r="W194">
+        <v>7.39</v>
+      </c>
+      <c r="X194">
+        <v>7</v>
+      </c>
+      <c r="Y194">
+        <v>7</v>
+      </c>
+      <c r="Z194" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>2023</v>
+      </c>
+      <c r="B195">
+        <v>12</v>
+      </c>
+      <c r="C195">
+        <v>8</v>
+      </c>
+      <c r="D195" t="s">
+        <v>8</v>
+      </c>
+      <c r="E195">
+        <v>21.42</v>
+      </c>
+      <c r="F195">
+        <v>9.18</v>
+      </c>
+      <c r="G195">
+        <v>9.4</v>
+      </c>
+      <c r="H195">
+        <v>46</v>
+      </c>
+      <c r="I195">
+        <v>43</v>
+      </c>
+      <c r="J195">
+        <v>34</v>
+      </c>
+      <c r="K195">
+        <v>75</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195" t="s">
+        <v>33</v>
+      </c>
+      <c r="N195">
+        <v>17.28</v>
+      </c>
+      <c r="O195">
+        <v>3.58</v>
+      </c>
+      <c r="P195">
+        <v>4.16</v>
+      </c>
+      <c r="Q195">
+        <v>56</v>
+      </c>
+      <c r="R195">
+        <v>54</v>
+      </c>
+      <c r="S195">
+        <v>38</v>
+      </c>
+      <c r="T195">
+        <v>61</v>
+      </c>
+      <c r="U195">
+        <v>0</v>
+      </c>
+      <c r="V195" t="s">
+        <v>32</v>
+      </c>
+      <c r="W195">
+        <v>8.34</v>
+      </c>
+      <c r="X195">
+        <v>8</v>
+      </c>
+      <c r="Y195">
+        <v>8</v>
+      </c>
+      <c r="Z195" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>2023</v>
+      </c>
+      <c r="B196">
+        <v>12</v>
+      </c>
+      <c r="C196">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s">
+        <v>22</v>
+      </c>
+      <c r="E196">
+        <v>23.1</v>
+      </c>
+      <c r="F196">
+        <v>8.26</v>
+      </c>
+      <c r="G196">
+        <v>8.49</v>
+      </c>
+      <c r="H196">
+        <v>38</v>
+      </c>
+      <c r="I196">
+        <v>31</v>
+      </c>
+      <c r="J196">
+        <v>30</v>
+      </c>
+      <c r="K196">
+        <v>32</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196" t="s">
+        <v>17</v>
+      </c>
+      <c r="N196">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="O196">
+        <v>4.2</v>
+      </c>
+      <c r="P196">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="Q196">
+        <v>43</v>
+      </c>
+      <c r="R196">
+        <v>41</v>
+      </c>
+      <c r="S196">
+        <v>33</v>
+      </c>
+      <c r="T196">
+        <v>17</v>
+      </c>
+      <c r="U196">
+        <v>0</v>
+      </c>
+      <c r="V196" t="s">
+        <v>43</v>
+      </c>
+      <c r="W196">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="X196">
+        <v>7</v>
+      </c>
+      <c r="Y196">
+        <v>7</v>
+      </c>
+      <c r="Z196" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2023</v>
+      </c>
+      <c r="B197">
+        <v>12</v>
+      </c>
+      <c r="C197">
+        <v>13</v>
+      </c>
+      <c r="D197" t="s">
+        <v>24</v>
+      </c>
+      <c r="E197" t="s">
+        <v>36</v>
+      </c>
+      <c r="F197" t="s">
+        <v>36</v>
+      </c>
+      <c r="G197" t="s">
+        <v>36</v>
+      </c>
+      <c r="H197">
+        <v>40</v>
+      </c>
+      <c r="I197">
+        <v>38</v>
+      </c>
+      <c r="J197">
+        <v>32</v>
+      </c>
+      <c r="K197">
+        <v>63</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197" t="s">
+        <v>32</v>
+      </c>
+      <c r="N197">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="O197">
+        <v>4.43</v>
+      </c>
+      <c r="P197">
+        <v>5</v>
+      </c>
+      <c r="Q197">
+        <v>51</v>
+      </c>
+      <c r="R197">
+        <v>49</v>
+      </c>
+      <c r="S197">
+        <v>35</v>
+      </c>
+      <c r="T197">
+        <v>23</v>
+      </c>
+      <c r="U197">
+        <v>0</v>
+      </c>
+      <c r="V197" t="s">
+        <v>43</v>
+      </c>
+      <c r="W197">
+        <v>7.23</v>
+      </c>
+      <c r="X197">
+        <v>8</v>
+      </c>
+      <c r="Y197">
+        <v>9</v>
+      </c>
+      <c r="Z197" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>2024</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+      <c r="D198" t="s">
+        <v>24</v>
+      </c>
+      <c r="E198">
+        <v>22.01</v>
+      </c>
+      <c r="F198">
+        <v>8.18</v>
+      </c>
+      <c r="G198">
+        <v>8.4</v>
+      </c>
+      <c r="H198">
+        <v>32</v>
+      </c>
+      <c r="I198">
+        <v>30</v>
+      </c>
+      <c r="J198">
+        <v>27</v>
+      </c>
+      <c r="K198">
+        <v>42</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198" t="s">
+        <v>25</v>
+      </c>
+      <c r="N198">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="O198">
+        <v>12.32</v>
+      </c>
+      <c r="P198">
+        <v>12.51</v>
+      </c>
+      <c r="Q198">
+        <v>52</v>
+      </c>
+      <c r="R198">
+        <v>50</v>
+      </c>
+      <c r="S198">
+        <v>32</v>
+      </c>
+      <c r="T198">
+        <v>48</v>
+      </c>
+      <c r="U198">
+        <v>2</v>
+      </c>
+      <c r="V198" t="s">
+        <v>33</v>
+      </c>
+      <c r="W198">
+        <v>7.45</v>
+      </c>
+      <c r="X198">
+        <v>8</v>
+      </c>
+      <c r="Y198">
+        <v>9</v>
+      </c>
+      <c r="Z198" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>2024</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>5</v>
+      </c>
+      <c r="D199" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199">
+        <v>24.12</v>
+      </c>
+      <c r="F199">
+        <v>7.48</v>
+      </c>
+      <c r="G199">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="H199">
+        <v>26</v>
+      </c>
+      <c r="I199">
+        <v>25</v>
+      </c>
+      <c r="J199">
+        <v>22</v>
+      </c>
+      <c r="K199">
+        <v>53</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199" t="s">
+        <v>17</v>
+      </c>
+      <c r="N199">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="O199">
+        <v>4.24</v>
+      </c>
+      <c r="P199">
+        <v>4.45</v>
+      </c>
+      <c r="Q199">
+        <v>45</v>
+      </c>
+      <c r="R199">
+        <v>43</v>
+      </c>
+      <c r="S199">
+        <v>32</v>
+      </c>
+      <c r="T199">
+        <v>25</v>
+      </c>
+      <c r="U199">
+        <v>0</v>
+      </c>
+      <c r="V199" t="s">
+        <v>17</v>
+      </c>
+      <c r="W199">
+        <v>8.19</v>
+      </c>
+      <c r="X199">
+        <v>7</v>
+      </c>
+      <c r="Y199">
+        <v>9</v>
+      </c>
+      <c r="Z199" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>2024</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>8</v>
+      </c>
+      <c r="D200" t="s">
+        <v>22</v>
+      </c>
+      <c r="E200">
+        <v>23.07</v>
+      </c>
+      <c r="F200">
+        <v>8.14</v>
+      </c>
+      <c r="G200">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="H200">
+        <v>34</v>
+      </c>
+      <c r="I200">
+        <v>31</v>
+      </c>
+      <c r="J200">
+        <v>28</v>
+      </c>
+      <c r="K200">
+        <v>36</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+      <c r="M200" t="s">
+        <v>34</v>
+      </c>
+      <c r="N200">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="O200">
+        <v>4.47</v>
+      </c>
+      <c r="P200">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Q200">
+        <v>39</v>
+      </c>
+      <c r="R200">
+        <v>31</v>
+      </c>
+      <c r="S200">
+        <v>29</v>
+      </c>
+      <c r="T200">
+        <v>40</v>
+      </c>
+      <c r="U200">
+        <v>0</v>
+      </c>
+      <c r="V200" t="s">
+        <v>17</v>
+      </c>
+      <c r="W200">
+        <v>8.11</v>
+      </c>
+      <c r="X200">
+        <v>8</v>
+      </c>
+      <c r="Y200">
+        <v>9</v>
+      </c>
+      <c r="Z200" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>2024</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>10</v>
+      </c>
+      <c r="D201" t="s">
+        <v>24</v>
+      </c>
+      <c r="E201">
+        <v>23.43</v>
+      </c>
+      <c r="F201">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="G201">
+        <v>8.02</v>
+      </c>
+      <c r="H201">
+        <v>38</v>
+      </c>
+      <c r="I201">
+        <v>31</v>
+      </c>
+      <c r="J201">
+        <v>28</v>
+      </c>
+      <c r="K201">
+        <v>40</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201" t="s">
+        <v>17</v>
+      </c>
+      <c r="N201">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="O201">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="P201">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="Q201">
+        <v>47</v>
+      </c>
+      <c r="R201">
+        <v>43</v>
+      </c>
+      <c r="S201">
+        <v>35</v>
+      </c>
+      <c r="T201">
+        <v>20</v>
+      </c>
+      <c r="U201">
+        <v>0</v>
+      </c>
+      <c r="V201" t="s">
+        <v>32</v>
+      </c>
+      <c r="W201">
+        <v>7.59</v>
+      </c>
+      <c r="X201">
+        <v>7</v>
+      </c>
+      <c r="Y201">
+        <v>8</v>
+      </c>
+      <c r="Z201" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2024</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s">
+        <v>18</v>
+      </c>
+      <c r="E202">
+        <v>24.49</v>
+      </c>
+      <c r="F202">
+        <v>8.48</v>
+      </c>
+      <c r="G202">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="H202">
+        <v>31</v>
+      </c>
+      <c r="I202">
+        <v>28</v>
+      </c>
+      <c r="J202">
+        <v>29</v>
+      </c>
+      <c r="K202">
+        <v>52</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="M202" t="s">
+        <v>17</v>
+      </c>
+      <c r="N202">
+        <v>22.23</v>
+      </c>
+      <c r="O202">
+        <v>4</v>
+      </c>
+      <c r="P202">
+        <v>4.22</v>
+      </c>
+      <c r="Q202">
+        <v>54</v>
+      </c>
+      <c r="R202">
+        <v>52</v>
+      </c>
+      <c r="S202">
+        <v>38</v>
+      </c>
+      <c r="T202">
+        <v>26</v>
+      </c>
+      <c r="U202">
+        <v>0</v>
+      </c>
+      <c r="V202" t="s">
+        <v>17</v>
+      </c>
+      <c r="W202">
+        <v>7.58</v>
+      </c>
+      <c r="X202">
+        <v>8</v>
+      </c>
+      <c r="Y202">
+        <v>8</v>
+      </c>
+      <c r="Z202" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>2024</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>17</v>
+      </c>
+      <c r="D203" t="s">
+        <v>24</v>
+      </c>
+      <c r="E203">
+        <v>23.47</v>
+      </c>
+      <c r="F203">
+        <v>8.49</v>
+      </c>
+      <c r="G203">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="H203">
+        <v>18</v>
+      </c>
+      <c r="I203">
+        <v>12</v>
+      </c>
+      <c r="J203">
+        <v>9</v>
+      </c>
+      <c r="K203">
+        <v>44</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203" t="s">
+        <v>17</v>
+      </c>
+      <c r="N203">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="O203">
+        <v>4.49</v>
+      </c>
+      <c r="P203">
+        <v>5.08</v>
+      </c>
+      <c r="Q203">
+        <v>34</v>
+      </c>
+      <c r="R203">
+        <v>29</v>
+      </c>
+      <c r="S203">
+        <v>16</v>
+      </c>
+      <c r="T203">
+        <v>28</v>
+      </c>
+      <c r="U203">
+        <v>0</v>
+      </c>
+      <c r="V203" t="s">
+        <v>17</v>
+      </c>
+      <c r="W203">
+        <v>7.3</v>
+      </c>
+      <c r="X203">
+        <v>8</v>
+      </c>
+      <c r="Y203">
+        <v>8</v>
+      </c>
+      <c r="Z203" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>2024</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>22</v>
+      </c>
+      <c r="D204" t="s">
+        <v>22</v>
+      </c>
+      <c r="E204">
+        <v>22.49</v>
+      </c>
+      <c r="F204">
+        <v>8.57</v>
+      </c>
+      <c r="G204">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H204">
+        <v>27</v>
+      </c>
+      <c r="I204">
+        <v>26</v>
+      </c>
+      <c r="J204">
+        <v>19</v>
+      </c>
+      <c r="K204">
+        <v>91</v>
+      </c>
+      <c r="L204">
+        <v>2</v>
+      </c>
+      <c r="M204" t="s">
+        <v>17</v>
+      </c>
+      <c r="N204">
+        <v>18.57</v>
+      </c>
+      <c r="O204">
+        <v>5.31</v>
+      </c>
+      <c r="P204">
+        <v>5.5</v>
+      </c>
+      <c r="Q204">
+        <v>39</v>
+      </c>
+      <c r="R204">
+        <v>36</v>
+      </c>
+      <c r="S204">
+        <v>24</v>
+      </c>
+      <c r="T204">
+        <v>36</v>
+      </c>
+      <c r="U204">
+        <v>0</v>
+      </c>
+      <c r="V204" t="s">
+        <v>42</v>
+      </c>
+      <c r="W204">
+        <v>7.08</v>
+      </c>
+      <c r="X204">
+        <v>7</v>
+      </c>
+      <c r="Y204">
+        <v>7</v>
+      </c>
+      <c r="Z204" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>2024</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205">
+        <v>23</v>
+      </c>
+      <c r="D205" t="s">
+        <v>23</v>
+      </c>
+      <c r="E205">
+        <v>22.31</v>
+      </c>
+      <c r="F205">
+        <v>8.15</v>
+      </c>
+      <c r="G205">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="H205">
+        <v>35</v>
+      </c>
+      <c r="I205">
+        <v>33</v>
+      </c>
+      <c r="J205">
+        <v>28</v>
+      </c>
+      <c r="K205">
+        <v>97</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205" t="s">
+        <v>32</v>
+      </c>
+      <c r="N205">
+        <v>19.2</v>
+      </c>
+      <c r="O205">
+        <v>5.22</v>
+      </c>
+      <c r="P205">
+        <v>5.41</v>
+      </c>
+      <c r="Q205">
+        <v>47</v>
+      </c>
+      <c r="R205">
+        <v>45</v>
+      </c>
+      <c r="S205">
+        <v>41</v>
+      </c>
+      <c r="T205">
+        <v>43</v>
+      </c>
+      <c r="U205">
+        <v>0</v>
+      </c>
+      <c r="V205" t="s">
+        <v>32</v>
+      </c>
+      <c r="W205">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="X205">
+        <v>8</v>
+      </c>
+      <c r="Y205">
+        <v>8</v>
+      </c>
+      <c r="Z205" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>2024</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>24</v>
+      </c>
+      <c r="D206" t="s">
+        <v>24</v>
+      </c>
+      <c r="E206">
+        <v>23.24</v>
+      </c>
+      <c r="F206">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="G206">
+        <v>9.1</v>
+      </c>
+      <c r="H206">
+        <v>49</v>
+      </c>
+      <c r="I206">
+        <v>48</v>
+      </c>
+      <c r="J206">
+        <v>47</v>
+      </c>
+      <c r="K206">
+        <v>79</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206" t="s">
+        <v>32</v>
+      </c>
+      <c r="N206">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="O206">
+        <v>4.51</v>
+      </c>
+      <c r="P206">
+        <v>5.09</v>
+      </c>
+      <c r="Q206">
+        <v>65</v>
+      </c>
+      <c r="R206">
+        <v>66</v>
+      </c>
+      <c r="S206">
+        <v>59</v>
+      </c>
+      <c r="T206">
+        <v>18</v>
+      </c>
+      <c r="U206">
+        <v>0</v>
+      </c>
+      <c r="V206" t="s">
+        <v>32</v>
+      </c>
+      <c r="W206">
+        <v>8.48</v>
+      </c>
+      <c r="X206">
+        <v>7</v>
+      </c>
+      <c r="Y206">
+        <v>8</v>
+      </c>
+      <c r="Z206" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>2024</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>26</v>
+      </c>
+      <c r="D207" t="s">
+        <v>8</v>
+      </c>
+      <c r="E207">
+        <v>23.51</v>
+      </c>
+      <c r="F207">
+        <v>9.14</v>
+      </c>
+      <c r="G207">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="H207">
+        <v>64</v>
+      </c>
+      <c r="I207">
+        <v>65</v>
+      </c>
+      <c r="J207">
+        <v>63</v>
+      </c>
+      <c r="K207">
+        <v>38</v>
+      </c>
+      <c r="L207">
+        <v>2</v>
+      </c>
+      <c r="M207" t="s">
+        <v>32</v>
+      </c>
+      <c r="N207">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="O207">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="P207">
+        <v>4.57</v>
+      </c>
+      <c r="Q207">
+        <v>69</v>
+      </c>
+      <c r="R207">
+        <v>70</v>
+      </c>
+      <c r="S207">
+        <v>63</v>
+      </c>
+      <c r="T207">
+        <v>19</v>
+      </c>
+      <c r="U207">
+        <v>0</v>
+      </c>
+      <c r="V207" t="s">
+        <v>33</v>
+      </c>
+      <c r="W207">
+        <v>8.27</v>
+      </c>
+      <c r="X207">
+        <v>8</v>
+      </c>
+      <c r="Y207">
+        <v>8</v>
+      </c>
+      <c r="Z207" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>2024</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <v>29</v>
+      </c>
+      <c r="D208" t="s">
+        <v>22</v>
+      </c>
+      <c r="E208">
+        <v>21.51</v>
+      </c>
+      <c r="F208">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="G208">
+        <v>8.34</v>
+      </c>
+      <c r="H208">
+        <v>43</v>
+      </c>
+      <c r="I208">
+        <v>37</v>
+      </c>
+      <c r="J208">
+        <v>33</v>
+      </c>
+      <c r="K208">
+        <v>45</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="M208" t="s">
+        <v>17</v>
+      </c>
+      <c r="N208">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="O208">
+        <v>5.15</v>
+      </c>
+      <c r="P208">
+        <v>5.34</v>
+      </c>
+      <c r="Q208">
+        <v>44</v>
+      </c>
+      <c r="R208">
+        <v>46</v>
+      </c>
+      <c r="S208">
+        <v>34</v>
+      </c>
+      <c r="T208">
+        <v>25</v>
+      </c>
+      <c r="U208">
+        <v>0</v>
+      </c>
+      <c r="V208" t="s">
+        <v>17</v>
+      </c>
+      <c r="W208">
+        <v>7.35</v>
+      </c>
+      <c r="X208">
+        <v>8</v>
+      </c>
+      <c r="Y208">
+        <v>8</v>
+      </c>
+      <c r="Z208" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>2024</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>30</v>
+      </c>
+      <c r="D209" t="s">
+        <v>23</v>
+      </c>
+      <c r="E209">
+        <v>23.39</v>
+      </c>
+      <c r="F209">
+        <v>8.11</v>
+      </c>
+      <c r="G209">
+        <v>8.35</v>
+      </c>
+      <c r="H209">
+        <v>34</v>
+      </c>
+      <c r="I209">
+        <v>31</v>
+      </c>
+      <c r="J209">
+        <v>30</v>
+      </c>
+      <c r="K209">
+        <v>49</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209" t="s">
+        <v>25</v>
+      </c>
+      <c r="N209">
+        <v>18.05</v>
+      </c>
+      <c r="O209">
+        <v>4.58</v>
+      </c>
+      <c r="P209">
+        <v>5.16</v>
+      </c>
+      <c r="Q209">
+        <v>48</v>
+      </c>
+      <c r="R209">
+        <v>46</v>
+      </c>
+      <c r="S209">
+        <v>36</v>
+      </c>
+      <c r="T209">
+        <v>23</v>
+      </c>
+      <c r="U209">
+        <v>0</v>
+      </c>
+      <c r="V209" t="s">
+        <v>33</v>
+      </c>
+      <c r="W209">
+        <v>8.56</v>
+      </c>
+      <c r="X209">
+        <v>7</v>
+      </c>
+      <c r="Y209">
+        <v>8</v>
+      </c>
+      <c r="Z209" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>2024</v>
+      </c>
+      <c r="B210">
+        <v>2</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210">
+        <v>22.33</v>
+      </c>
+      <c r="F210">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="G210">
+        <v>8.5</v>
+      </c>
+      <c r="H210">
+        <v>38</v>
+      </c>
+      <c r="I210">
+        <v>37</v>
+      </c>
+      <c r="J210">
+        <v>33</v>
+      </c>
+      <c r="K210">
+        <v>56</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210" t="s">
+        <v>17</v>
+      </c>
+      <c r="N210">
+        <v>18.3</v>
+      </c>
+      <c r="O210">
+        <v>4.38</v>
+      </c>
+      <c r="P210">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="Q210">
+        <v>52</v>
+      </c>
+      <c r="R210">
+        <v>51</v>
+      </c>
+      <c r="S210">
+        <v>39</v>
+      </c>
+      <c r="T210">
+        <v>20</v>
+      </c>
+      <c r="U210">
+        <v>0</v>
+      </c>
+      <c r="V210" t="s">
+        <v>17</v>
+      </c>
+      <c r="W210">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="X210">
+        <v>8</v>
+      </c>
+      <c r="Y210">
+        <v>8</v>
+      </c>
+      <c r="Z210" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>2024</v>
+      </c>
+      <c r="B211">
+        <v>2</v>
+      </c>
+      <c r="C211">
+        <v>2</v>
+      </c>
+      <c r="D211" t="s">
+        <v>8</v>
+      </c>
+      <c r="E211">
+        <v>22.1</v>
+      </c>
+      <c r="F211">
+        <v>8.48</v>
+      </c>
+      <c r="G211">
+        <v>9.1</v>
+      </c>
+      <c r="H211">
+        <v>47</v>
+      </c>
+      <c r="I211">
+        <v>46</v>
+      </c>
+      <c r="J211">
+        <v>39</v>
+      </c>
+      <c r="K211">
+        <v>60</v>
+      </c>
+      <c r="L211">
+        <v>1</v>
+      </c>
+      <c r="M211" t="s">
+        <v>33</v>
+      </c>
+      <c r="N211">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="O211">
+        <v>4.47</v>
+      </c>
+      <c r="P211">
+        <v>5.04</v>
+      </c>
+      <c r="Q211">
+        <v>57</v>
+      </c>
+      <c r="R211">
+        <v>55</v>
+      </c>
+      <c r="S211">
+        <v>41</v>
+      </c>
+      <c r="T211">
+        <v>27</v>
+      </c>
+      <c r="U211">
+        <v>0</v>
+      </c>
+      <c r="V211" t="s">
+        <v>34</v>
+      </c>
+      <c r="W211">
+        <v>8.09</v>
+      </c>
+      <c r="X211">
+        <v>8</v>
+      </c>
+      <c r="Y211">
+        <v>6</v>
+      </c>
+      <c r="Z211" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>2024</v>
+      </c>
+      <c r="B212">
+        <v>2</v>
+      </c>
+      <c r="C212">
+        <v>5</v>
+      </c>
+      <c r="D212" t="s">
+        <v>22</v>
+      </c>
+      <c r="E212">
+        <v>23.34</v>
+      </c>
+      <c r="F212">
+        <v>7.48</v>
+      </c>
+      <c r="G212">
+        <v>8.11</v>
+      </c>
+      <c r="H212">
+        <v>33</v>
+      </c>
+      <c r="I212">
+        <v>28</v>
+      </c>
+      <c r="J212">
+        <v>27</v>
+      </c>
+      <c r="K212">
+        <v>50</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212" t="s">
+        <v>34</v>
+      </c>
+      <c r="N212">
+        <v>17.27</v>
+      </c>
+      <c r="O212">
+        <v>4.46</v>
+      </c>
+      <c r="P212">
+        <v>5.03</v>
+      </c>
+      <c r="Q212">
+        <v>52</v>
+      </c>
+      <c r="R212">
+        <v>50</v>
+      </c>
+      <c r="S212">
+        <v>31</v>
+      </c>
+      <c r="T212">
+        <v>26</v>
+      </c>
+      <c r="U212">
+        <v>0</v>
+      </c>
+      <c r="V212" t="s">
+        <v>17</v>
+      </c>
+      <c r="W212">
+        <v>7.43</v>
+      </c>
+      <c r="X212">
+        <v>8</v>
+      </c>
+      <c r="Y212">
+        <v>8</v>
+      </c>
+      <c r="Z212" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>2024</v>
+      </c>
+      <c r="B213">
+        <v>2</v>
+      </c>
+      <c r="C213">
+        <v>6</v>
+      </c>
+      <c r="D213" t="s">
+        <v>23</v>
+      </c>
+      <c r="E213">
+        <v>24.43</v>
+      </c>
+      <c r="F213">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="G213">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H213">
+        <v>35</v>
+      </c>
+      <c r="I213">
+        <v>28</v>
+      </c>
+      <c r="J213">
+        <v>27</v>
+      </c>
+      <c r="K213">
+        <v>56</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="M213" t="s">
+        <v>17</v>
+      </c>
+      <c r="N213">
+        <v>17.25</v>
+      </c>
+      <c r="O213">
+        <v>4.54</v>
+      </c>
+      <c r="P213">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="Q213">
+        <v>46</v>
+      </c>
+      <c r="R213">
+        <v>41</v>
+      </c>
+      <c r="S213">
+        <v>25</v>
+      </c>
+      <c r="T213">
+        <v>27</v>
+      </c>
+      <c r="U213">
+        <v>0</v>
+      </c>
+      <c r="V213" t="s">
+        <v>17</v>
+      </c>
+      <c r="W213">
+        <v>7.37</v>
+      </c>
+      <c r="X213">
+        <v>7</v>
+      </c>
+      <c r="Y213">
+        <v>8</v>
+      </c>
+      <c r="Z213" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>2024</v>
+      </c>
+      <c r="B214">
+        <v>2</v>
+      </c>
+      <c r="C214">
+        <v>7</v>
+      </c>
+      <c r="D214" t="s">
+        <v>24</v>
+      </c>
+      <c r="E214">
+        <v>25.13</v>
+      </c>
+      <c r="F214">
+        <v>8.01</v>
+      </c>
+      <c r="G214">
+        <v>8.26</v>
+      </c>
+      <c r="H214">
+        <v>31</v>
+      </c>
+      <c r="I214">
+        <v>26</v>
+      </c>
+      <c r="J214">
+        <v>22</v>
+      </c>
+      <c r="K214">
+        <v>49</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214" t="s">
+        <v>17</v>
+      </c>
+      <c r="N214">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="O214">
+        <v>11.4</v>
+      </c>
+      <c r="P214">
+        <v>11.59</v>
+      </c>
+      <c r="Q214">
+        <v>47</v>
+      </c>
+      <c r="R214">
+        <v>43</v>
+      </c>
+      <c r="S214">
+        <v>24</v>
+      </c>
+      <c r="T214">
+        <v>28</v>
+      </c>
+      <c r="U214">
+        <v>3</v>
+      </c>
+      <c r="V214" t="s">
+        <v>17</v>
+      </c>
+      <c r="W214">
+        <v>7.45</v>
+      </c>
+      <c r="X214">
+        <v>7</v>
+      </c>
+      <c r="Y214">
+        <v>8</v>
+      </c>
+      <c r="Z214" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>2024</v>
+      </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
+      <c r="C215">
+        <v>8</v>
+      </c>
+      <c r="D215" t="s">
+        <v>18</v>
+      </c>
+      <c r="E215">
+        <v>21.37</v>
+      </c>
+      <c r="F215">
+        <v>10.16</v>
+      </c>
+      <c r="G215">
+        <v>10.38</v>
+      </c>
+      <c r="H215">
+        <v>45</v>
+      </c>
+      <c r="I215">
+        <v>43</v>
+      </c>
+      <c r="J215">
+        <v>33</v>
+      </c>
+      <c r="K215">
+        <v>58</v>
+      </c>
+      <c r="L215">
+        <v>3</v>
+      </c>
+      <c r="M215" t="s">
+        <v>34</v>
+      </c>
+      <c r="N215">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="O215">
+        <v>5.01</v>
+      </c>
+      <c r="P215">
+        <v>5.23</v>
+      </c>
+      <c r="Q215">
+        <v>52</v>
+      </c>
+      <c r="R215">
+        <v>50</v>
+      </c>
+      <c r="S215">
+        <v>36</v>
+      </c>
+      <c r="T215">
+        <v>26</v>
+      </c>
+      <c r="U215">
+        <v>0</v>
+      </c>
+      <c r="V215" t="s">
+        <v>33</v>
+      </c>
+      <c r="W215" t="s">
+        <v>36</v>
+      </c>
+      <c r="X215">
+        <v>7</v>
+      </c>
+      <c r="Y215">
+        <v>8</v>
+      </c>
+      <c r="Z215" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>2024</v>
+      </c>
+      <c r="B216">
+        <v>2</v>
+      </c>
+      <c r="C216">
+        <v>13</v>
+      </c>
+      <c r="D216" t="s">
+        <v>23</v>
+      </c>
+      <c r="E216">
+        <v>22.58</v>
+      </c>
+      <c r="F216">
+        <v>8.1</v>
+      </c>
+      <c r="G216">
+        <v>8.33</v>
+      </c>
+      <c r="H216">
+        <v>47</v>
+      </c>
+      <c r="I216">
+        <v>41</v>
+      </c>
+      <c r="J216">
+        <v>37</v>
+      </c>
+      <c r="K216">
+        <v>38</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216" t="s">
+        <v>73</v>
+      </c>
+      <c r="N216">
+        <v>16.38</v>
+      </c>
+      <c r="O216">
+        <v>4.09</v>
+      </c>
+      <c r="P216">
+        <v>4.25</v>
+      </c>
+      <c r="Q216">
+        <v>54</v>
+      </c>
+      <c r="R216">
+        <v>52</v>
+      </c>
+      <c r="S216">
+        <v>29</v>
+      </c>
+      <c r="T216">
+        <v>26</v>
+      </c>
+      <c r="U216">
+        <v>0</v>
+      </c>
+      <c r="V216" t="s">
+        <v>17</v>
+      </c>
+      <c r="W216">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="X216">
+        <v>8</v>
+      </c>
+      <c r="Y216">
+        <v>8</v>
+      </c>
+      <c r="Z216" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>2024</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+      <c r="C217">
+        <v>14</v>
+      </c>
+      <c r="D217" t="s">
+        <v>24</v>
+      </c>
+      <c r="E217">
+        <v>24.02</v>
+      </c>
+      <c r="F217">
+        <v>7.43</v>
+      </c>
+      <c r="G217">
+        <v>8.07</v>
+      </c>
+      <c r="H217">
+        <v>38</v>
+      </c>
+      <c r="I217">
+        <v>34</v>
+      </c>
+      <c r="J217">
+        <v>31</v>
+      </c>
+      <c r="K217">
+        <v>41</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217" t="s">
+        <v>17</v>
+      </c>
+      <c r="N217">
+        <v>17.04</v>
+      </c>
+      <c r="O217">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="P217">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="Q217">
+        <v>58</v>
+      </c>
+      <c r="R217">
+        <v>56</v>
+      </c>
+      <c r="S217">
+        <v>38</v>
+      </c>
+      <c r="T217">
+        <v>27</v>
+      </c>
+      <c r="U217">
+        <v>0</v>
+      </c>
+      <c r="V217" t="s">
+        <v>25</v>
+      </c>
+      <c r="W217">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="X217">
+        <v>8</v>
+      </c>
+      <c r="Y217">
+        <v>8</v>
+      </c>
+      <c r="Z217" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>2024</v>
+      </c>
+      <c r="B218">
+        <v>2</v>
+      </c>
+      <c r="C218">
+        <v>15</v>
+      </c>
+      <c r="D218" t="s">
+        <v>18</v>
+      </c>
+      <c r="E218">
+        <v>23.33</v>
+      </c>
+      <c r="F218">
+        <v>8.24</v>
+      </c>
+      <c r="G218">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="H218">
+        <v>42</v>
+      </c>
+      <c r="I218">
+        <v>39</v>
+      </c>
+      <c r="J218">
+        <v>36</v>
+      </c>
+      <c r="K218">
+        <v>57</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218" t="s">
+        <v>34</v>
+      </c>
+      <c r="N218">
+        <v>17.12</v>
+      </c>
+      <c r="O218">
+        <v>4.53</v>
+      </c>
+      <c r="P218">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Q218">
+        <v>62</v>
+      </c>
+      <c r="R218">
+        <v>60</v>
+      </c>
+      <c r="S218">
+        <v>39</v>
+      </c>
+      <c r="T218">
+        <v>30</v>
+      </c>
+      <c r="U218">
+        <v>0</v>
+      </c>
+      <c r="V218" t="s">
+        <v>17</v>
+      </c>
+      <c r="W218">
+        <v>7.31</v>
+      </c>
+      <c r="X218">
+        <v>8</v>
+      </c>
+      <c r="Y218">
+        <v>8</v>
+      </c>
+      <c r="Z218" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>2024</v>
+      </c>
+      <c r="B219">
+        <v>2</v>
+      </c>
+      <c r="C219">
+        <v>16</v>
+      </c>
+      <c r="D219" t="s">
+        <v>74</v>
+      </c>
+      <c r="E219">
+        <v>23.42</v>
+      </c>
+      <c r="F219">
+        <v>8.58</v>
+      </c>
+      <c r="G219">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="H219">
+        <v>48</v>
+      </c>
+      <c r="I219">
+        <v>46</v>
+      </c>
+      <c r="J219">
+        <v>32</v>
+      </c>
+      <c r="K219">
+        <v>52</v>
+      </c>
+      <c r="L219">
+        <v>2</v>
+      </c>
+      <c r="M219" t="s">
+        <v>32</v>
+      </c>
+      <c r="N219">
+        <v>18.47</v>
+      </c>
+      <c r="O219">
+        <v>5.13</v>
+      </c>
+      <c r="P219">
+        <v>5.32</v>
+      </c>
+      <c r="Q219">
+        <v>55</v>
+      </c>
+      <c r="R219">
+        <v>53</v>
+      </c>
+      <c r="S219">
+        <v>34</v>
+      </c>
+      <c r="T219">
+        <v>28</v>
+      </c>
+      <c r="U219">
+        <v>0</v>
+      </c>
+      <c r="V219" t="s">
+        <v>32</v>
+      </c>
+      <c r="W219">
+        <v>8.36</v>
+      </c>
+      <c r="X219">
+        <v>6</v>
+      </c>
+      <c r="Y219">
+        <v>8</v>
+      </c>
+      <c r="Z219" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>2024</v>
+      </c>
+      <c r="B220">
+        <v>2</v>
+      </c>
+      <c r="C220">
+        <v>19</v>
+      </c>
+      <c r="D220" t="s">
+        <v>22</v>
+      </c>
+      <c r="E220">
+        <v>24.08</v>
+      </c>
+      <c r="F220">
+        <v>7.43</v>
+      </c>
+      <c r="G220">
+        <v>8.07</v>
+      </c>
+      <c r="H220">
+        <v>33</v>
+      </c>
+      <c r="I220">
+        <v>28</v>
+      </c>
+      <c r="J220">
+        <v>24</v>
+      </c>
+      <c r="K220">
+        <v>61</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+      <c r="M220" t="s">
+        <v>17</v>
+      </c>
+      <c r="N220">
+        <v>18.29</v>
+      </c>
+      <c r="O220">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="P220">
+        <v>4.37</v>
+      </c>
+      <c r="Q220">
+        <v>53</v>
+      </c>
+      <c r="R220">
+        <v>51</v>
+      </c>
+      <c r="S220">
+        <v>29</v>
+      </c>
+      <c r="T220">
+        <v>30</v>
+      </c>
+      <c r="U220">
+        <v>0</v>
+      </c>
+      <c r="V220" t="s">
+        <v>17</v>
+      </c>
+      <c r="W220">
+        <v>6.32</v>
+      </c>
+      <c r="X220">
+        <v>8</v>
+      </c>
+      <c r="Y220">
+        <v>8</v>
+      </c>
+      <c r="Z220" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>2024</v>
+      </c>
+      <c r="B221">
+        <v>2</v>
+      </c>
+      <c r="C221">
+        <v>20</v>
+      </c>
+      <c r="D221" t="s">
+        <v>23</v>
+      </c>
+      <c r="E221">
+        <v>25.13</v>
+      </c>
+      <c r="F221">
+        <v>7.43</v>
+      </c>
+      <c r="G221">
+        <v>8.08</v>
+      </c>
+      <c r="H221">
+        <v>32</v>
+      </c>
+      <c r="I221">
+        <v>28</v>
+      </c>
+      <c r="J221">
+        <v>28</v>
+      </c>
+      <c r="K221">
+        <v>55</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+      <c r="M221" t="s">
+        <v>17</v>
+      </c>
+      <c r="N221">
+        <v>16.41</v>
+      </c>
+      <c r="O221">
+        <v>4.3</v>
+      </c>
+      <c r="P221">
+        <v>4.47</v>
+      </c>
+      <c r="Q221">
+        <v>53</v>
+      </c>
+      <c r="R221">
+        <v>51</v>
+      </c>
+      <c r="S221">
+        <v>31</v>
+      </c>
+      <c r="T221">
+        <v>32</v>
+      </c>
+      <c r="U221">
+        <v>0</v>
+      </c>
+      <c r="V221" t="s">
+        <v>33</v>
+      </c>
+      <c r="W221">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="X221">
+        <v>8</v>
+      </c>
+      <c r="Y221">
+        <v>8</v>
+      </c>
+      <c r="Z221" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>2024</v>
+      </c>
+      <c r="B222">
+        <v>2</v>
+      </c>
+      <c r="C222">
+        <v>21</v>
+      </c>
+      <c r="D222" t="s">
+        <v>24</v>
+      </c>
+      <c r="E222">
+        <v>23.56</v>
+      </c>
+      <c r="F222">
+        <v>7.55</v>
+      </c>
+      <c r="G222">
+        <v>8.19</v>
+      </c>
+      <c r="H222">
+        <v>33</v>
+      </c>
+      <c r="I222">
+        <v>28</v>
+      </c>
+      <c r="J222">
+        <v>28</v>
+      </c>
+      <c r="K222">
+        <v>41</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222" t="s">
+        <v>17</v>
+      </c>
+      <c r="N222">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="O222">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="P222">
+        <v>5.21</v>
+      </c>
+      <c r="Q222">
+        <v>52</v>
+      </c>
+      <c r="R222">
+        <v>50</v>
+      </c>
+      <c r="S222">
+        <v>35</v>
+      </c>
+      <c r="T222">
+        <v>36</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222" t="s">
+        <v>17</v>
+      </c>
+      <c r="W222">
+        <v>7.04</v>
+      </c>
+      <c r="X222">
+        <v>7</v>
+      </c>
+      <c r="Y222">
+        <v>8</v>
+      </c>
+      <c r="Z222" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>2024</v>
+      </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
+      <c r="C223">
+        <v>26</v>
+      </c>
+      <c r="D223" t="s">
+        <v>22</v>
+      </c>
+      <c r="E223">
+        <v>24.29</v>
+      </c>
+      <c r="F223">
+        <v>7.43</v>
+      </c>
+      <c r="G223">
+        <v>8.07</v>
+      </c>
+      <c r="H223">
+        <v>44</v>
+      </c>
+      <c r="I223">
+        <v>40</v>
+      </c>
+      <c r="J223">
+        <v>36</v>
+      </c>
+      <c r="K223">
+        <v>39</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223" t="s">
+        <v>34</v>
+      </c>
+      <c r="N223">
+        <v>16.3</v>
+      </c>
+      <c r="O223">
+        <v>5.55</v>
+      </c>
+      <c r="P223">
+        <v>6.11</v>
+      </c>
+      <c r="Q223">
+        <v>62</v>
+      </c>
+      <c r="R223">
+        <v>60</v>
+      </c>
+      <c r="S223">
+        <v>43</v>
+      </c>
+      <c r="T223">
+        <v>44</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223" t="s">
+        <v>34</v>
+      </c>
+      <c r="W223">
+        <v>7.2</v>
+      </c>
+      <c r="X223">
+        <v>8</v>
+      </c>
+      <c r="Y223">
+        <v>8</v>
+      </c>
+      <c r="Z223" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>2024</v>
+      </c>
+      <c r="B224">
+        <v>2</v>
+      </c>
+      <c r="C224">
+        <v>27</v>
+      </c>
+      <c r="D224" t="s">
+        <v>23</v>
+      </c>
+      <c r="E224">
+        <v>24.08</v>
+      </c>
+      <c r="F224">
+        <v>7.5</v>
+      </c>
+      <c r="G224">
+        <v>8.14</v>
+      </c>
+      <c r="H224">
+        <v>51</v>
+      </c>
+      <c r="I224">
+        <v>50</v>
+      </c>
+      <c r="J224">
+        <v>42</v>
+      </c>
+      <c r="K224">
+        <v>62</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224" t="s">
+        <v>32</v>
+      </c>
+      <c r="N224">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="O224">
+        <v>4.33</v>
+      </c>
+      <c r="P224">
+        <v>4.51</v>
+      </c>
+      <c r="Q224">
+        <v>61</v>
+      </c>
+      <c r="R224">
+        <v>60</v>
+      </c>
+      <c r="S224">
+        <v>55</v>
+      </c>
+      <c r="T224">
+        <v>44</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224" t="s">
+        <v>32</v>
+      </c>
+      <c r="W224">
+        <v>7.28</v>
+      </c>
+      <c r="X224">
+        <v>8</v>
+      </c>
+      <c r="Y224">
+        <v>7</v>
+      </c>
+      <c r="Z224" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="225" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>2024</v>
+      </c>
+      <c r="B225">
+        <v>2</v>
+      </c>
+      <c r="C225">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>24</v>
+      </c>
+      <c r="E225">
+        <v>22.44</v>
+      </c>
+      <c r="F225">
+        <v>7.52</v>
+      </c>
+      <c r="G225">
+        <v>8.15</v>
+      </c>
+      <c r="H225">
+        <v>61</v>
+      </c>
+      <c r="I225">
+        <v>60</v>
+      </c>
+      <c r="J225">
+        <v>50</v>
+      </c>
+      <c r="K225">
+        <v>52</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225" t="s">
+        <v>49</v>
+      </c>
+      <c r="N225">
+        <v>19.45</v>
+      </c>
+      <c r="O225">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P225">
+        <v>5</v>
+      </c>
+      <c r="Q225">
+        <v>69</v>
+      </c>
+      <c r="R225">
+        <v>69</v>
+      </c>
+      <c r="S225">
+        <v>58</v>
+      </c>
+      <c r="T225">
+        <v>43</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225" t="s">
+        <v>49</v>
+      </c>
+      <c r="W225">
+        <v>7.15</v>
+      </c>
+      <c r="X225">
+        <v>7</v>
+      </c>
+      <c r="Y225">
+        <v>8</v>
+      </c>
+      <c r="Z225" t="s">
         <v>19</v>
       </c>
     </row>
